--- a/data/data_perfil_mensal.xlsx
+++ b/data/data_perfil_mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82f3955c2e385cb8/Desktop/Desktop/My R Packages/perfil_mensal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F589C6-3187-40C8-98C9-D7B2EDC4CC01}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B5E8E22-177A-43EB-B05C-32B391F978C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21FB473E-04F3-47BE-90E3-7A7B985E5A04}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">linear_select!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">long_term!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reta_aloc!$A$1:$E$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reta_aloc!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>cota</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t>idex</t>
   </si>
+  <si>
+    <t>ima_b_5</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +73,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,7 +116,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2BB35-ACDB-4899-AD4E-1A94E7C738C0}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,9 +465,10 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -480,8 +484,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45412</v>
       </c>
@@ -497,8 +504,11 @@
       <c r="E2" s="3">
         <v>125924.19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>11096.938936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45414</v>
       </c>
@@ -514,8 +524,11 @@
       <c r="E3" s="3">
         <v>127122.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>11140.805899000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45415</v>
       </c>
@@ -531,8 +544,11 @@
       <c r="E4" s="3">
         <v>128508.67</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>11189.930128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45418</v>
       </c>
@@ -548,8 +564,11 @@
       <c r="E5" s="3">
         <v>128465.69</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>11141.449685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45419</v>
       </c>
@@ -565,8 +584,11 @@
       <c r="E6" s="3">
         <v>129210.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>11187.044328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45420</v>
       </c>
@@ -582,8 +604,11 @@
       <c r="E7" s="3">
         <v>129480.89</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>11192.020366999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45421</v>
       </c>
@@ -599,8 +624,11 @@
       <c r="E8" s="3">
         <v>128188.34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>11228.284643999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45422</v>
       </c>
@@ -616,8 +644,11 @@
       <c r="E9" s="3">
         <v>127599.57</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>11202.690544999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45425</v>
       </c>
@@ -633,8 +664,11 @@
       <c r="E10" s="3">
         <v>128154.79</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>11199.188434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45426</v>
       </c>
@@ -650,8 +684,11 @@
       <c r="E11" s="3">
         <v>128515.49</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>11226.121918000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45427</v>
       </c>
@@ -667,8 +704,11 @@
       <c r="E12" s="3">
         <v>128027.59</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>11241.139521999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45428</v>
       </c>
@@ -684,8 +724,11 @@
       <c r="E13" s="3">
         <v>128283.62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>11300.721777000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45429</v>
       </c>
@@ -701,8 +744,11 @@
       <c r="E14" s="3">
         <v>128150.71</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11287.86492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45432</v>
       </c>
@@ -718,8 +764,11 @@
       <c r="E15" s="3">
         <v>127750.92</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>11274.142426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45433</v>
       </c>
@@ -735,8 +784,11 @@
       <c r="E16" s="3">
         <v>127411.55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>11277.197028000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45434</v>
       </c>
@@ -752,8 +804,11 @@
       <c r="E17" s="3">
         <v>125650.03</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>11255.380284000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45435</v>
       </c>
@@ -769,8 +824,11 @@
       <c r="E18" s="3">
         <v>124729.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>11285.582027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45436</v>
       </c>
@@ -786,8 +844,11 @@
       <c r="E19" s="3">
         <v>124305.57</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>11274.249315999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45439</v>
       </c>
@@ -803,8 +864,11 @@
       <c r="E20" s="3">
         <v>124495.67999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>11255.636145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45440</v>
       </c>
@@ -820,8 +884,11 @@
       <c r="E21" s="3">
         <v>123779.54</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>11267.403573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45441</v>
       </c>
@@ -837,8 +904,11 @@
       <c r="E22" s="3">
         <v>122707.28</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>11232.909729000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45443</v>
       </c>
@@ -854,8 +924,11 @@
       <c r="E23" s="3">
         <v>122098.09</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>11273.777151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45446</v>
       </c>
@@ -871,8 +944,11 @@
       <c r="E24" s="3">
         <v>122031.58</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>11267.321919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45447</v>
       </c>
@@ -888,8 +964,11 @@
       <c r="E25" s="3">
         <v>121802.06</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>11239.636055000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45448</v>
       </c>
@@ -905,8 +984,11 @@
       <c r="E26" s="3">
         <v>121407.33</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>11207.748804000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45449</v>
       </c>
@@ -922,8 +1004,11 @@
       <c r="E27" s="3">
         <v>122898.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>11241.164115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45450</v>
       </c>
@@ -939,8 +1024,11 @@
       <c r="E28" s="3">
         <v>120767.19</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>11146.388665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45453</v>
       </c>
@@ -956,8 +1044,11 @@
       <c r="E29" s="3">
         <v>120759.51</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>11147.277776000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45454</v>
       </c>
@@ -973,8 +1064,11 @@
       <c r="E30" s="3">
         <v>121635.06</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>11123.076816000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45455</v>
       </c>
@@ -990,8 +1084,11 @@
       <c r="E31" s="3">
         <v>119936.02</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>11018.654197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45456</v>
       </c>
@@ -1007,8 +1104,11 @@
       <c r="E32" s="3">
         <v>119567.53</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>11067.496566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45457</v>
       </c>
@@ -1024,8 +1124,11 @@
       <c r="E33" s="3">
         <v>119662.38</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>11098.705883000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45460</v>
       </c>
@@ -1041,8 +1144,11 @@
       <c r="E34" s="3">
         <v>119138</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>11110.560384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45461</v>
       </c>
@@ -1058,8 +1164,11 @@
       <c r="E35" s="3">
         <v>119630.44</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>11115.131189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45462</v>
       </c>
@@ -1075,8 +1184,11 @@
       <c r="E36" s="3">
         <v>120261.34</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>11111.951881999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45463</v>
       </c>
@@ -1092,8 +1204,11 @@
       <c r="E37" s="3">
         <v>120445.91</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>11124.583661999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45464</v>
       </c>
@@ -1109,8 +1224,11 @@
       <c r="E38" s="3">
         <v>121341.13</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>11182.561242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45467</v>
       </c>
@@ -1126,8 +1244,11 @@
       <c r="E39" s="3">
         <v>122636.96</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>11190.813894000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45468</v>
       </c>
@@ -1143,8 +1264,11 @@
       <c r="E40" s="3">
         <v>122331.39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>11147.874027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45469</v>
       </c>
@@ -1160,8 +1284,11 @@
       <c r="E41" s="3">
         <v>122641.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>11120.152392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45470</v>
       </c>
@@ -1177,8 +1304,11 @@
       <c r="E42" s="3">
         <v>124307.83</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>11111.794146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45471</v>
       </c>
@@ -1194,8 +1324,11 @@
       <c r="E43" s="3">
         <v>123906.55</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>11020.022715999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45474</v>
       </c>
@@ -1211,8 +1344,11 @@
       <c r="E44" s="3">
         <v>124718.07</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>10957.969476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45475</v>
       </c>
@@ -1228,8 +1364,11 @@
       <c r="E45" s="3">
         <v>124787.08</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>10967.975601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45476</v>
       </c>
@@ -1245,8 +1384,11 @@
       <c r="E46" s="3">
         <v>125661.89</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>11059.297742000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45477</v>
       </c>
@@ -1262,8 +1404,11 @@
       <c r="E47" s="3">
         <v>126163.98</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>11149.461246000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45478</v>
       </c>
@@ -1279,8 +1424,11 @@
       <c r="E48" s="3">
         <v>126267.05</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>11209.024702999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45481</v>
       </c>
@@ -1296,8 +1444,11 @@
       <c r="E49" s="3">
         <v>126548.34</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>11204.820904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45482</v>
       </c>
@@ -1313,8 +1464,11 @@
       <c r="E50" s="3">
         <v>127108.22</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>11206.737294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45483</v>
       </c>
@@ -1330,8 +1484,11 @@
       <c r="E51" s="3">
         <v>127218.24000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>11309.501711999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45484</v>
       </c>
@@ -1347,8 +1504,11 @@
       <c r="E52" s="3">
         <v>128293.61</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>11390.301588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45485</v>
       </c>
@@ -1364,8 +1524,11 @@
       <c r="E53" s="3">
         <v>128896.98</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>11400.119355999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45488</v>
       </c>
@@ -1381,8 +1544,11 @@
       <c r="E54" s="3">
         <v>129320.96000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>11366.029649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45489</v>
       </c>
@@ -1398,8 +1564,11 @@
       <c r="E55" s="3">
         <v>129110.38</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>11393.430059</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45490</v>
       </c>
@@ -1415,8 +1584,11 @@
       <c r="E56" s="3">
         <v>129450.32</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>11391.84496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45491</v>
       </c>
@@ -1432,8 +1604,11 @@
       <c r="E57" s="3">
         <v>127652.06</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>11318.338346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45492</v>
       </c>
@@ -1449,8 +1624,11 @@
       <c r="E58" s="3">
         <v>127616.46</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>11286.876624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45495</v>
       </c>
@@ -1466,8 +1644,11 @@
       <c r="E59" s="3">
         <v>127859.63</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>11310.890437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45496</v>
       </c>
@@ -1483,8 +1664,11 @@
       <c r="E60" s="3">
         <v>126589.84</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>11238.566523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45497</v>
       </c>
@@ -1500,8 +1684,11 @@
       <c r="E61" s="3">
         <v>126422.73</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>11247.456565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45498</v>
       </c>
@@ -1517,8 +1704,11 @@
       <c r="E62" s="3">
         <v>125954.09</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>11242.356899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45499</v>
       </c>
@@ -1534,8 +1724,11 @@
       <c r="E63" s="3">
         <v>127492.49</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>11298.006347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45502</v>
       </c>
@@ -1551,8 +1744,11 @@
       <c r="E64" s="3">
         <v>126953.86</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>11292.517723999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45503</v>
       </c>
@@ -1568,8 +1764,11 @@
       <c r="E65" s="3">
         <v>126139.21</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>11321.900959000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45504</v>
       </c>
@@ -1585,8 +1784,11 @@
       <c r="E66" s="3">
         <v>127651.81</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>11376.651153000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45505</v>
       </c>
@@ -1602,8 +1804,11 @@
       <c r="E67" s="3">
         <v>127395.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>11419.077249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45506</v>
       </c>
@@ -1619,8 +1824,11 @@
       <c r="E68" s="3">
         <v>125854.09</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>11583.722064</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45509</v>
       </c>
@@ -1636,8 +1844,11 @@
       <c r="E69" s="3">
         <v>125269.54</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>11589.967578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45510</v>
       </c>
@@ -1653,8 +1864,11 @@
       <c r="E70" s="3">
         <v>126266.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>11519.306847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45511</v>
       </c>
@@ -1670,8 +1884,11 @@
       <c r="E71" s="3">
         <v>127513.88</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>11533.313227000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45512</v>
       </c>
@@ -1687,8 +1904,11 @@
       <c r="E72" s="3">
         <v>128660.88</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>11599.40518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45513</v>
       </c>
@@ -1704,8 +1924,11 @@
       <c r="E73" s="3">
         <v>130614.59</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>11695.782969</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45516</v>
       </c>
@@ -1721,8 +1944,11 @@
       <c r="E74" s="3">
         <v>131115.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>11732.171716000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45517</v>
       </c>
@@ -1738,8 +1964,11 @@
       <c r="E75" s="3">
         <v>132397.97</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>11780.707107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45518</v>
       </c>
@@ -1755,8 +1984,11 @@
       <c r="E76" s="3">
         <v>133317.66</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>11784.953157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45519</v>
       </c>
@@ -1772,8 +2004,11 @@
       <c r="E77" s="3">
         <v>134153.42000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>11752.14014</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45520</v>
       </c>
@@ -1789,8 +2024,11 @@
       <c r="E78" s="3">
         <v>133953.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>11719.093147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45523</v>
       </c>
@@ -1806,8 +2044,11 @@
       <c r="E79" s="3">
         <v>135777.98000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>11667.912122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45524</v>
       </c>
@@ -1823,8 +2064,11 @@
       <c r="E80" s="3">
         <v>136087.41</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>11598.806481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45525</v>
       </c>
@@ -1840,8 +2084,11 @@
       <c r="E81" s="3">
         <v>136463.65</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>11606.145097000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45526</v>
       </c>
@@ -1857,8 +2104,11 @@
       <c r="E82" s="3">
         <v>135173.39000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>11589.581654</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45527</v>
       </c>
@@ -1874,8 +2124,11 @@
       <c r="E83" s="3">
         <v>135608.47</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>11637.40468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45530</v>
       </c>
@@ -1891,8 +2144,11 @@
       <c r="E84" s="3">
         <v>136888.71</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>11597.330690000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45531</v>
       </c>
@@ -1908,8 +2164,11 @@
       <c r="E85" s="3">
         <v>136775.91</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>11579.689688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45532</v>
       </c>
@@ -1925,8 +2184,11 @@
       <c r="E86" s="3">
         <v>137343.96</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>11534.168736</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45533</v>
       </c>
@@ -1942,8 +2204,11 @@
       <c r="E87" s="3">
         <v>136041.35</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>11522.085944</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45534</v>
       </c>
@@ -1959,8 +2224,11 @@
       <c r="E88" s="3">
         <v>136004.01</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>11464.326182999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45537</v>
       </c>
@@ -1976,8 +2244,11 @@
       <c r="E89" s="3">
         <v>134906.07</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>11430.485386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45538</v>
       </c>
@@ -1993,8 +2264,11 @@
       <c r="E90" s="3">
         <v>134353.48000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>11416.427901999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45539</v>
       </c>
@@ -2010,8 +2284,11 @@
       <c r="E91" s="3">
         <v>136110.73000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>11457.327305999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45540</v>
       </c>
@@ -2027,8 +2304,11 @@
       <c r="E92" s="3">
         <v>136502.49</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>11510.087536999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45541</v>
       </c>
@@ -2044,8 +2324,11 @@
       <c r="E93" s="3">
         <v>134572.45000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>11532.4007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45544</v>
       </c>
@@ -2061,8 +2344,11 @@
       <c r="E94" s="3">
         <v>134737.21</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>11516.827655999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45545</v>
       </c>
@@ -2078,8 +2364,11 @@
       <c r="E95" s="3">
         <v>134319.57999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>11490.002323000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45546</v>
       </c>
@@ -2095,8 +2384,11 @@
       <c r="E96" s="3">
         <v>134676.75</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>11484.295255999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45547</v>
       </c>
@@ -2112,8 +2404,11 @@
       <c r="E97" s="3">
         <v>134029.43</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>11417.413825</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45548</v>
       </c>
@@ -2129,8 +2424,11 @@
       <c r="E98" s="3">
         <v>134881.95000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>11454.571861</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45551</v>
       </c>
@@ -2146,8 +2444,11 @@
       <c r="E99" s="3">
         <v>135118.22</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>11414.758644</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45552</v>
       </c>
@@ -2163,8 +2464,11 @@
       <c r="E100" s="3">
         <v>134960.19</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>11418.153920999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45553</v>
       </c>
@@ -2180,8 +2484,11 @@
       <c r="E101" s="3">
         <v>133747.69</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>11425.202968</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45554</v>
       </c>
@@ -2197,8 +2504,11 @@
       <c r="E102" s="3">
         <v>133122.67000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>11339.342149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45555</v>
       </c>
@@ -2214,8 +2524,11 @@
       <c r="E103" s="3">
         <v>131065.44</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>11269.864535999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45558</v>
       </c>
@@ -2231,8 +2544,11 @@
       <c r="E104" s="3">
         <v>130568.37</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>11284.130227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45559</v>
       </c>
@@ -2248,8 +2564,11 @@
       <c r="E105" s="3">
         <v>132155.76</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>11335.767906999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45560</v>
       </c>
@@ -2265,8 +2584,11 @@
       <c r="E106" s="3">
         <v>131586.45000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>11349.256568000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45561</v>
       </c>
@@ -2282,8 +2604,11 @@
       <c r="E107" s="3">
         <v>133009.78</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>11345.941685</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45562</v>
       </c>
@@ -2299,8 +2624,11 @@
       <c r="E108" s="3">
         <v>132730.35999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>11342.370854000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45565</v>
       </c>
@@ -2316,8 +2644,11 @@
       <c r="E109" s="3">
         <v>131816.44</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>11301.111945000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45566</v>
       </c>
@@ -2333,8 +2664,11 @@
       <c r="E110" s="3">
         <v>132495.16</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>11321.016347000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45567</v>
       </c>
@@ -2350,8 +2684,11 @@
       <c r="E111" s="3">
         <v>133514.94</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>11323.973563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45568</v>
       </c>
@@ -2367,8 +2704,11 @@
       <c r="E112" s="3">
         <v>131671.51</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>11313.836579000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45569</v>
       </c>
@@ -2384,8 +2724,11 @@
       <c r="E113" s="3">
         <v>131791.54999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>11275.780406</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45572</v>
       </c>
@@ -2401,8 +2744,11 @@
       <c r="E114" s="3">
         <v>132017.84</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>11327.340199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45573</v>
       </c>
@@ -2418,8 +2764,11 @@
       <c r="E115" s="3">
         <v>131511.73000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>11362.858698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45574</v>
       </c>
@@ -2435,8 +2784,11 @@
       <c r="E116" s="3">
         <v>129962.06</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>11288.753414000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45575</v>
       </c>
@@ -2452,8 +2804,11 @@
       <c r="E117" s="3">
         <v>130352.86</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>11321.156239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45576</v>
       </c>
@@ -2469,8 +2824,11 @@
       <c r="E118" s="3">
         <v>129992.29</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>11320.048672000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45579</v>
       </c>
@@ -2486,8 +2844,11 @@
       <c r="E119" s="3">
         <v>131005.25</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>11296.223859</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45580</v>
       </c>
@@ -2503,8 +2864,11 @@
       <c r="E120" s="3">
         <v>131043.27</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>11255.662695000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45581</v>
       </c>
@@ -2520,8 +2884,11 @@
       <c r="E121" s="3">
         <v>131749.72</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>11215.074903000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45582</v>
       </c>
@@ -2537,8 +2904,11 @@
       <c r="E122" s="3">
         <v>130793.41</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>11202.495983000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45583</v>
       </c>
@@ -2554,8 +2924,11 @@
       <c r="E123" s="3">
         <v>130499.26</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>11141.423776</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45586</v>
       </c>
@@ -2571,8 +2944,11 @@
       <c r="E124" s="3">
         <v>130361.56</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>11127.671936000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45587</v>
       </c>
@@ -2588,8 +2964,11 @@
       <c r="E125" s="3">
         <v>129951.37</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>11123.966766</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45588</v>
       </c>
@@ -2605,8 +2984,11 @@
       <c r="E126" s="3">
         <v>129233.11</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>11077.007283999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45589</v>
       </c>
@@ -2622,8 +3004,11 @@
       <c r="E127" s="3">
         <v>130066.95</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>11180.5828</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45590</v>
       </c>
@@ -2639,8 +3024,11 @@
       <c r="E128" s="3">
         <v>129893.32</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>11132.24121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45593</v>
       </c>
@@ -2656,8 +3044,11 @@
       <c r="E129" s="3">
         <v>131212.57999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>11102.380609</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45594</v>
       </c>
@@ -2673,8 +3064,11 @@
       <c r="E130" s="3">
         <v>130729.93</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>11072.925624</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45595</v>
       </c>
@@ -2690,8 +3084,11 @@
       <c r="E131" s="3">
         <v>130639.33</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>11096.071900999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45596</v>
       </c>
@@ -2707,8 +3104,11 @@
       <c r="E132" s="3">
         <v>129713.33</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>11113.630809</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -2724,8 +3124,11 @@
       <c r="E133" s="3">
         <v>128120.75</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>11062.223228999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45600</v>
       </c>
@@ -2741,8 +3144,11 @@
       <c r="E134" s="3">
         <v>130514.79</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>11177.618531</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45601</v>
       </c>
@@ -2758,8 +3164,11 @@
       <c r="E135" s="3">
         <v>130660.75</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>11189.85248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45602</v>
       </c>
@@ -2775,8 +3184,11 @@
       <c r="E136" s="3">
         <v>130340.92</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>11206.252865</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45603</v>
       </c>
@@ -2792,8 +3204,11 @@
       <c r="E137" s="3">
         <v>129681.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>11278.553821</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45604</v>
       </c>
@@ -2809,8 +3224,11 @@
       <c r="E138" s="3">
         <v>127829.8</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>11316.76584</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45607</v>
       </c>
@@ -2826,8 +3244,11 @@
       <c r="E139" s="3">
         <v>127873.7</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>11295.418186999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45608</v>
       </c>
@@ -2843,8 +3264,11 @@
       <c r="E140" s="3">
         <v>127829.8</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>11140.150078999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45609</v>
       </c>
@@ -2860,8 +3284,11 @@
       <c r="E141" s="3">
         <v>127733.88</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>11149.394624</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45610</v>
       </c>
@@ -2877,8 +3304,11 @@
       <c r="E142" s="3">
         <v>127791.6</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>11172.765740999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45614</v>
       </c>
@@ -2894,8 +3324,11 @@
       <c r="E143" s="3">
         <v>127768.19</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>11192.533303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45615</v>
       </c>
@@ -2911,8 +3344,11 @@
       <c r="E144" s="3">
         <v>128197.25</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>11239.825902</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45617</v>
       </c>
@@ -2928,8 +3364,11 @@
       <c r="E145" s="3">
         <v>126922.11</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>11292.741137999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45618</v>
       </c>
@@ -2945,8 +3384,11 @@
       <c r="E146" s="3">
         <v>129125.51</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>11237.37573</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45621</v>
       </c>
@@ -2962,8 +3404,11 @@
       <c r="E147" s="3">
         <v>129036.1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>11263.320168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45622</v>
       </c>
@@ -2979,8 +3424,11 @@
       <c r="E148" s="3">
         <v>129922.38</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>11254.338121000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45623</v>
       </c>
@@ -2996,8 +3444,11 @@
       <c r="E149" s="3">
         <v>127668.61</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>11133.033982000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45624</v>
       </c>
@@ -3013,8 +3464,11 @@
       <c r="E150" s="3">
         <v>124610.41</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>11057.010329000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45625</v>
       </c>
@@ -3030,8 +3484,11 @@
       <c r="E151" s="3">
         <v>125667.83</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>11088.485752000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45628</v>
       </c>
@@ -3047,8 +3504,11 @@
       <c r="E152" s="3">
         <v>125235.54</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>11124.038197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45629</v>
       </c>
@@ -3064,8 +3524,11 @@
       <c r="E153" s="3">
         <v>126139.2</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>11043.376823000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45630</v>
       </c>
@@ -3081,8 +3544,11 @@
       <c r="E154" s="3">
         <v>126087.02</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>11081.339268</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45631</v>
       </c>
@@ -3098,8 +3564,11 @@
       <c r="E155" s="3">
         <v>127857.58</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>11070.196459000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45632</v>
       </c>
@@ -3115,8 +3584,11 @@
       <c r="E156" s="3">
         <v>125945.67</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>11007.408052999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -3132,8 +3604,11 @@
       <c r="E157" s="3">
         <v>127210.19</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>11007.408052999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45636</v>
       </c>
@@ -3149,8 +3624,11 @@
       <c r="E158" s="3">
         <v>128228.49</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>11076.335912</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45637</v>
       </c>
@@ -3166,8 +3644,11 @@
       <c r="E159" s="3">
         <v>129593.31</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>11234.641379000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45638</v>
       </c>
@@ -3183,8 +3664,11 @@
       <c r="E160" s="3">
         <v>126042.21</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>11158.619379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45639</v>
       </c>
@@ -3200,8 +3684,11 @@
       <c r="E161" s="3">
         <v>124612.22</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>11002.684442</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45642</v>
       </c>
@@ -3217,8 +3704,11 @@
       <c r="E162" s="3">
         <v>123560.06</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>10803.550020999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45643</v>
       </c>
@@ -3234,8 +3724,11 @@
       <c r="E163" s="3">
         <v>124698.04</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>10718.697704</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45644</v>
       </c>
@@ -3251,8 +3744,11 @@
       <c r="E164" s="3">
         <v>120771.88</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>10718.697704</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45645</v>
       </c>
@@ -3268,8 +3764,11 @@
       <c r="E165" s="3">
         <v>121187.91</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>10722.122278000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45646</v>
       </c>
@@ -3285,8 +3784,11 @@
       <c r="E166" s="3">
         <v>122102.15</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>10818.542012</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45649</v>
       </c>
@@ -3302,8 +3804,11 @@
       <c r="E167" s="3">
         <v>120766.57</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>10786.228848000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45650</v>
       </c>
@@ -3319,8 +3824,11 @@
       <c r="E168" s="3">
         <v>120766.57</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>10792.639749</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45652</v>
       </c>
@@ -3336,8 +3844,11 @@
       <c r="E169" s="3">
         <v>121077.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>10766.524673</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45653</v>
       </c>
@@ -3353,8 +3864,11 @@
       <c r="E170" s="3">
         <v>120269.31</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>10676.426094</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45656</v>
       </c>
@@ -3370,8 +3884,11 @@
       <c r="E171" s="3">
         <v>120283.4</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>10597.68447</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45657</v>
       </c>
@@ -3387,8 +3904,11 @@
       <c r="E172" s="3">
         <v>120283.4</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>10603.594494999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45659</v>
       </c>
@@ -3404,8 +3924,11 @@
       <c r="E173" s="3">
         <v>120125.39</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>10643.805367999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45660</v>
       </c>
@@ -3421,8 +3944,11 @@
       <c r="E174" s="3">
         <v>118532.68</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>10658.576499999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45663</v>
       </c>
@@ -3438,8 +3964,11 @@
       <c r="E175" s="3">
         <v>120021.52</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>10710.955532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45664</v>
       </c>
@@ -3455,8 +3984,11 @@
       <c r="E176" s="3">
         <v>121162.66</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>10699.747600999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45665</v>
       </c>
@@ -3472,8 +4004,11 @@
       <c r="E177" s="3">
         <v>119624.51</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>10711.934073</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45666</v>
       </c>
@@ -3489,8 +4024,11 @@
       <c r="E178" s="3">
         <v>119780.56</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>10718.404125999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45667</v>
       </c>
@@ -3506,8 +4044,11 @@
       <c r="E179" s="3">
         <v>118856.48</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>10675.627274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45670</v>
       </c>
@@ -3523,8 +4064,11 @@
       <c r="E180" s="3">
         <v>119006.93</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>10634.206531</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45671</v>
       </c>
@@ -3540,8 +4084,11 @@
       <c r="E181" s="3">
         <v>119298.67</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>10676.261273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45672</v>
       </c>
@@ -3557,8 +4104,11 @@
       <c r="E182" s="3">
         <v>122650.2</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>10676.261273</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45673</v>
       </c>
@@ -3574,8 +4124,11 @@
       <c r="E183" s="3">
         <v>121234.14</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>10675.210026999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45674</v>
       </c>
@@ -3591,8 +4144,11 @@
       <c r="E184" s="3">
         <v>122350.38</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>10607.372679</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45677</v>
       </c>
@@ -3608,8 +4164,11 @@
       <c r="E185" s="3">
         <v>122855.15</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>10570.048191</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45678</v>
       </c>
@@ -3625,8 +4184,11 @@
       <c r="E186" s="3">
         <v>123338.34</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>10515.188211999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45679</v>
       </c>
@@ -3642,8 +4204,11 @@
       <c r="E187" s="3">
         <v>122971.77</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>10534.429247</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45680</v>
       </c>
@@ -3659,8 +4224,11 @@
       <c r="E188" s="3">
         <v>122483.32</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>10501.702534</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45681</v>
       </c>
@@ -3676,8 +4244,11 @@
       <c r="E189" s="3">
         <v>122446.94</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>10525.188989</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45684</v>
       </c>
@@ -3693,8 +4264,11 @@
       <c r="E190" s="3">
         <v>124861.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>10528.001413</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45685</v>
       </c>
@@ -3710,8 +4284,11 @@
       <c r="E191" s="3">
         <v>124055.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>10530.395587000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45686</v>
       </c>
@@ -3727,8 +4304,11 @@
       <c r="E192" s="3">
         <v>123432.12</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>10522.170726</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45687</v>
       </c>
@@ -3744,8 +4324,11 @@
       <c r="E193" s="3">
         <v>126912.78</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>10680.496370999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45688</v>
       </c>
@@ -3761,8 +4344,11 @@
       <c r="E194" s="3">
         <v>126134.94</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>10649.638467999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45691</v>
       </c>
@@ -3778,8 +4364,11 @@
       <c r="E195" s="3">
         <v>125970.46</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>10693.813815</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45692</v>
       </c>
@@ -3795,8 +4384,11 @@
       <c r="E196" s="3">
         <v>125147.42</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>10681.935701</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45693</v>
       </c>
@@ -3812,8 +4404,11 @@
       <c r="E197" s="3">
         <v>125534.07</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>10629.135528000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45694</v>
       </c>
@@ -3829,8 +4424,11 @@
       <c r="E198" s="3">
         <v>126224.74</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>10664.226579</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45695</v>
       </c>
@@ -3846,8 +4444,11 @@
       <c r="E199" s="3">
         <v>124619.4</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>10648.420232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45698</v>
       </c>
@@ -3863,8 +4464,11 @@
       <c r="E200" s="3">
         <v>125571.81</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>10648.420232</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45699</v>
       </c>
@@ -3880,8 +4484,11 @@
       <c r="E201" s="3">
         <v>126521.66</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>10686.253244</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45700</v>
       </c>
@@ -3897,8 +4504,11 @@
       <c r="E202" s="3">
         <v>124380.21</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>10687.165011999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45701</v>
       </c>
@@ -3914,8 +4524,11 @@
       <c r="E203" s="3">
         <v>124850.18</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>10687.165011999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45702</v>
       </c>
@@ -3931,8 +4544,11 @@
       <c r="E204" s="3">
         <v>128218.59</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>10827.678162</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45705</v>
       </c>
@@ -3948,8 +4564,11 @@
       <c r="E205" s="3">
         <v>128552.13</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>10882.034589999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45706</v>
       </c>
@@ -3965,8 +4584,11 @@
       <c r="E206" s="3">
         <v>128531.71</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>10872.440975</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45707</v>
       </c>
@@ -3982,8 +4604,11 @@
       <c r="E207" s="3">
         <v>127308.8</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>10847.538070000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45708</v>
       </c>
@@ -3999,8 +4624,11 @@
       <c r="E208" s="3">
         <v>127600.58</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>10847.538070000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45709</v>
       </c>
@@ -4016,8 +4644,11 @@
       <c r="E209" s="3">
         <v>127128.06</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>10883.646675</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45712</v>
       </c>
@@ -4033,8 +4664,11 @@
       <c r="E210" s="3">
         <v>125401.38</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>10883.646675</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45713</v>
       </c>
@@ -4050,8 +4684,11 @@
       <c r="E211" s="3">
         <v>125979.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>10838.622155999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45714</v>
       </c>
@@ -4067,8 +4704,11 @@
       <c r="E212" s="3">
         <v>124768.71</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>10775.718602999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45715</v>
       </c>
@@ -4084,8 +4724,11 @@
       <c r="E213" s="3">
         <v>124798.96</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>10719.634187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45716</v>
       </c>
@@ -4101,8 +4744,11 @@
       <c r="E214" s="3">
         <v>122799.09</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>10693.115322</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45721</v>
       </c>
@@ -4118,8 +4764,11 @@
       <c r="E215" s="3">
         <v>123046.85</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>10786.539397</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45722</v>
       </c>
@@ -4135,8 +4784,11 @@
       <c r="E216" s="3">
         <v>123357.55</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>10787.463927999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45723</v>
       </c>
@@ -4152,8 +4804,11 @@
       <c r="E217" s="3">
         <v>125034.63</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>10822.231807</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45726</v>
       </c>
@@ -4169,8 +4824,11 @@
       <c r="E218" s="3">
         <v>124519.38</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>10828.342773</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45727</v>
       </c>
@@ -4186,8 +4844,11 @@
       <c r="E219" s="3">
         <v>124519.38</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>10885.508752</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45728</v>
       </c>
@@ -4203,8 +4864,11 @@
       <c r="E220" s="3">
         <v>123863.5</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>10885.508752</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45729</v>
       </c>
@@ -4220,8 +4884,11 @@
       <c r="E221" s="3">
         <v>125637.11</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>10910.789191</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45730</v>
       </c>
@@ -4237,8 +4904,11 @@
       <c r="E222" s="3">
         <v>128957.09</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>10890.779734</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45733</v>
       </c>
@@ -4254,8 +4924,11 @@
       <c r="E223" s="3">
         <v>130833.96</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>10895.863558999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45734</v>
       </c>
@@ -4271,8 +4944,11 @@
       <c r="E224" s="3">
         <v>131474.73000000001</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>10945.912866999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45735</v>
       </c>
@@ -4288,8 +4964,11 @@
       <c r="E225" s="3">
         <v>132508.45000000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>10996.83576</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45736</v>
       </c>
@@ -4305,8 +4984,11 @@
       <c r="E226" s="3">
         <v>131954.9</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>10937.456523999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45737</v>
       </c>
@@ -4322,8 +5004,11 @@
       <c r="E227" s="3">
         <v>132344.88</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>10963.010233000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45740</v>
       </c>
@@ -4339,8 +5024,11 @@
       <c r="E228" s="3">
         <v>131321.44</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>10924.551122000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45741</v>
       </c>
@@ -4356,8 +5044,11 @@
       <c r="E229" s="3">
         <v>132067.69</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>10937.677298000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45742</v>
       </c>
@@ -4373,8 +5064,11 @@
       <c r="E230" s="3">
         <v>132519.63</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>10933.843564000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45743</v>
       </c>
@@ -4390,8 +5084,11 @@
       <c r="E231" s="3">
         <v>133148.75</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>10946.063774</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45744</v>
       </c>
@@ -4407,8 +5104,11 @@
       <c r="E232" s="3">
         <v>131902.18</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>10951.012783</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45747</v>
       </c>
@@ -4424,8 +5124,11 @@
       <c r="E233" s="3">
         <v>130259.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>10995.855501</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45748</v>
       </c>
@@ -4441,8 +5144,11 @@
       <c r="E234" s="3">
         <v>131147.29999999999</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>10975.137001999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45749</v>
       </c>
@@ -4458,8 +5164,11 @@
       <c r="E235" s="3">
         <v>131190.34</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>10971.141105000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45750</v>
       </c>
@@ -4475,8 +5184,11 @@
       <c r="E236" s="3">
         <v>131140.65</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>11119.069708000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45751</v>
       </c>
@@ -4492,8 +5204,11 @@
       <c r="E237" s="3">
         <v>127256</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>11134.652222000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45754</v>
       </c>
@@ -4509,8 +5224,11 @@
       <c r="E238" s="3">
         <v>125588.09</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>11134.652222000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45755</v>
       </c>
@@ -4526,8 +5244,11 @@
       <c r="E239" s="3">
         <v>123931.89</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>11047.644947999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45756</v>
       </c>
@@ -4543,8 +5264,11 @@
       <c r="E240" s="3">
         <v>127795.93</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>11023.695645</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45757</v>
       </c>
@@ -4560,8 +5284,11 @@
       <c r="E241" s="3">
         <v>126354.75</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>10966.036646</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45758</v>
       </c>
@@ -4577,8 +5304,11 @@
       <c r="E242" s="3">
         <v>127682.4</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>11069.909092</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45761</v>
       </c>
@@ -4594,8 +5324,11 @@
       <c r="E243" s="3">
         <v>129453.91</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>11121.819232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45762</v>
       </c>
@@ -4611,8 +5344,11 @@
       <c r="E244" s="3">
         <v>129245.39</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>11086.602842</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45763</v>
       </c>
@@ -4628,8 +5364,11 @@
       <c r="E245" s="3">
         <v>128316.89</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>11081.212522</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45764</v>
       </c>
@@ -4645,8 +5384,11 @@
       <c r="E246" s="3">
         <v>129650.03</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>11086.642276</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45769</v>
       </c>
@@ -4662,8 +5404,11 @@
       <c r="E247" s="3">
         <v>130464.38</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>10993.02886</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45770</v>
       </c>
@@ -4679,8 +5424,11 @@
       <c r="E248" s="3">
         <v>132216.07</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>11042.011238999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45771</v>
       </c>
@@ -4696,8 +5444,11 @@
       <c r="E249" s="3">
         <v>134580.43</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>11132.298994000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45772</v>
       </c>
@@ -4713,8 +5464,11 @@
       <c r="E250" s="3">
         <v>134739.28</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>11163.907663</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45775</v>
       </c>
@@ -4730,8 +5484,11 @@
       <c r="E251" s="3">
         <v>135015.89000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>11191.518932000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45776</v>
       </c>
@@ -4747,8 +5504,11 @@
       <c r="E252" s="3">
         <v>135092.99</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>11215.927358000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45777</v>
       </c>
@@ -4764,8 +5524,11 @@
       <c r="E253" s="3">
         <v>135066.97</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>11252.529156000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45779</v>
       </c>
@@ -4781,8 +5544,11 @@
       <c r="E254" s="3">
         <v>135133.88</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>11252.529156000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45782</v>
       </c>
@@ -4798,8 +5564,11 @@
       <c r="E255" s="3">
         <v>133491.23000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>11219.750203</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45783</v>
       </c>
@@ -4815,8 +5584,11 @@
       <c r="E256" s="3">
         <v>133515.82</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>11299.043441</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45784</v>
       </c>
@@ -4832,8 +5604,11 @@
       <c r="E257" s="3">
         <v>133397.51999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>11346.575178999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45785</v>
       </c>
@@ -4849,8 +5624,11 @@
       <c r="E258" s="3">
         <v>136231.9</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>11440.00635</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45786</v>
       </c>
@@ -4866,8 +5644,11 @@
       <c r="E259" s="3">
         <v>136511.88</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>11482.242896</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45789</v>
       </c>
@@ -4883,8 +5664,11 @@
       <c r="E260" s="3">
         <v>136563.18</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>11471.766915</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45790</v>
       </c>
@@ -4900,8 +5684,11 @@
       <c r="E261" s="3">
         <v>138963.10999999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>11487.750916000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45791</v>
       </c>
@@ -4917,8 +5704,11 @@
       <c r="E262" s="3">
         <v>138422.84</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>11438.394816</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45792</v>
       </c>
@@ -4934,8 +5724,11 @@
       <c r="E263" s="3">
         <v>139334.38</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>11438.394816</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45793</v>
       </c>
@@ -4951,8 +5744,11 @@
       <c r="E264" s="3">
         <v>139187.39000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>11501.763355999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45796</v>
       </c>
@@ -4968,8 +5764,11 @@
       <c r="E265" s="3">
         <v>139636.41</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>11554.245873</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45797</v>
       </c>
@@ -4985,8 +5784,11 @@
       <c r="E266" s="3">
         <v>140109.63</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>11524.836576</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45798</v>
       </c>
@@ -5002,8 +5804,11 @@
       <c r="E267" s="3">
         <v>137881.26999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>11481.637656999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45799</v>
       </c>
@@ -5019,8 +5824,11 @@
       <c r="E268" s="3">
         <v>137272.59</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>11525.702278999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45800</v>
       </c>
@@ -5036,8 +5844,11 @@
       <c r="E269" s="3">
         <v>137824.29</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269">
+        <v>11538.097507</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45803</v>
       </c>
@@ -5053,8 +5864,11 @@
       <c r="E270" s="3">
         <v>138136.14000000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270">
+        <v>11553.315006000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45804</v>
       </c>
@@ -5070,8 +5884,11 @@
       <c r="E271" s="3">
         <v>139541.23000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271">
+        <v>11611.387575000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45805</v>
       </c>
@@ -5087,8 +5904,11 @@
       <c r="E272" s="3">
         <v>138887.81</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272">
+        <v>11573.975656000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45806</v>
       </c>
@@ -5104,8 +5924,11 @@
       <c r="E273" s="3">
         <v>138533.70000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273">
+        <v>11572.549281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45807</v>
       </c>
@@ -5121,8 +5944,11 @@
       <c r="E274" s="3">
         <v>137026.62</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274">
+        <v>11572.549281</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45810</v>
       </c>
@@ -5138,8 +5964,11 @@
       <c r="E275" s="3">
         <v>136786.65</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275">
+        <v>11501.188667</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45811</v>
       </c>
@@ -5155,8 +5984,11 @@
       <c r="E276" s="3">
         <v>137546.26</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276">
+        <v>11504.147005999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45812</v>
       </c>
@@ -5172,8 +6004,11 @@
       <c r="E277" s="3">
         <v>137001.57999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277">
+        <v>11534.495883</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45813</v>
       </c>
@@ -5189,8 +6024,11 @@
       <c r="E278" s="3">
         <v>136236.37</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278">
+        <v>11523.003987</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45814</v>
       </c>
@@ -5206,8 +6044,11 @@
       <c r="E279" s="3">
         <v>136102.1</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279">
+        <v>11523.003987</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45817</v>
       </c>
@@ -5223,8 +6064,11 @@
       <c r="E280" s="3">
         <v>135699.38</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280">
+        <v>11510.735371000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45818</v>
       </c>
@@ -5240,8 +6084,11 @@
       <c r="E281" s="3">
         <v>136436.07</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281">
+        <v>11469.204188</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45819</v>
       </c>
@@ -5257,8 +6104,11 @@
       <c r="E282" s="3">
         <v>137128.04</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282">
+        <v>11501.108989</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45820</v>
       </c>
@@ -5274,8 +6124,11 @@
       <c r="E283" s="3">
         <v>137799.74</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283">
+        <v>11495.994081000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45821</v>
       </c>
@@ -5291,8 +6144,11 @@
       <c r="E284" s="3">
         <v>137212.63</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284">
+        <v>11517.511026</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45824</v>
       </c>
@@ -5308,8 +6164,11 @@
       <c r="E285" s="3">
         <v>139255.91</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285">
+        <v>11539.224668000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45825</v>
       </c>
@@ -5325,8 +6184,11 @@
       <c r="E286" s="3">
         <v>138840.01999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286">
+        <v>11553.187776000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45826</v>
       </c>
@@ -5342,8 +6204,11 @@
       <c r="E287" s="3">
         <v>138716.64000000001</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287">
+        <v>11581.369804</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45828</v>
       </c>
@@ -5359,8 +6224,11 @@
       <c r="E288" s="3">
         <v>137115.82999999999</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288">
+        <v>11645.022854000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45831</v>
       </c>
@@ -5376,8 +6244,11 @@
       <c r="E289" s="3">
         <v>136550.5</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289">
+        <v>11625.925598</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45832</v>
       </c>
@@ -5393,9 +6264,12 @@
       <c r="E290" s="3">
         <v>137164.60999999999</v>
       </c>
+      <c r="F290">
+        <v>11595.74804</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E290" xr:uid="{A7E2BB35-ACDB-4899-AD4E-1A94E7C738C0}"/>
+  <autoFilter ref="A1:F1" xr:uid="{A7E2BB35-ACDB-4899-AD4E-1A94E7C738C0}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/data/data_perfil_mensal.xlsx
+++ b/data/data_perfil_mensal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82f3955c2e385cb8/Desktop/Desktop/My R Packages/perfil_mensal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B5E8E22-177A-43EB-B05C-32B391F978C0}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94378A75-09DF-4DEC-A35C-5C1F45E61F2C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21FB473E-04F3-47BE-90E3-7A7B985E5A04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{21FB473E-04F3-47BE-90E3-7A7B985E5A04}"/>
   </bookViews>
   <sheets>
     <sheet name="reta_aloc" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">linear_select!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">long_term!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">long_term!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reta_aloc!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>cota</t>
   </si>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2BB35-ACDB-4899-AD4E-1A94E7C738C0}">
   <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6276,10 +6276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B25821-3913-4441-A46B-D72EC7900227}">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A184" sqref="A184:F187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6288,7 +6288,7 @@
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6304,8 +6304,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45565</v>
       </c>
@@ -6321,8 +6324,11 @@
       <c r="E2" s="3">
         <v>131816.44</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>11301.111945000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45566</v>
       </c>
@@ -6338,8 +6344,11 @@
       <c r="E3" s="3">
         <v>132495.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>11321.016347000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45567</v>
       </c>
@@ -6355,8 +6364,11 @@
       <c r="E4" s="3">
         <v>133514.94</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>11323.973563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45568</v>
       </c>
@@ -6372,8 +6384,11 @@
       <c r="E5" s="3">
         <v>131671.51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>11313.836579000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45569</v>
       </c>
@@ -6389,8 +6404,11 @@
       <c r="E6" s="3">
         <v>131791.54999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>11275.780406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45572</v>
       </c>
@@ -6406,8 +6424,11 @@
       <c r="E7" s="3">
         <v>132017.84</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>11327.340199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45573</v>
       </c>
@@ -6423,8 +6444,11 @@
       <c r="E8" s="3">
         <v>131511.73000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>11362.858698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45574</v>
       </c>
@@ -6440,8 +6464,11 @@
       <c r="E9" s="3">
         <v>129962.06</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>11288.753414000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45575</v>
       </c>
@@ -6457,8 +6484,11 @@
       <c r="E10" s="3">
         <v>130352.86</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>11321.156239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45576</v>
       </c>
@@ -6474,8 +6504,11 @@
       <c r="E11" s="3">
         <v>129992.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>11320.048672000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45579</v>
       </c>
@@ -6491,8 +6524,11 @@
       <c r="E12" s="3">
         <v>131005.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>11296.223859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45580</v>
       </c>
@@ -6508,8 +6544,11 @@
       <c r="E13" s="3">
         <v>131043.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>11255.662695000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45581</v>
       </c>
@@ -6525,8 +6564,11 @@
       <c r="E14" s="3">
         <v>131749.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>11215.074903000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45582</v>
       </c>
@@ -6542,8 +6584,11 @@
       <c r="E15" s="3">
         <v>130793.41</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>11202.495983000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45583</v>
       </c>
@@ -6559,8 +6604,11 @@
       <c r="E16" s="3">
         <v>130499.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>11141.423776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45586</v>
       </c>
@@ -6576,8 +6624,11 @@
       <c r="E17" s="3">
         <v>130361.56</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>11127.671936000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45587</v>
       </c>
@@ -6593,8 +6644,11 @@
       <c r="E18" s="3">
         <v>129951.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>11123.966766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45588</v>
       </c>
@@ -6610,8 +6664,11 @@
       <c r="E19" s="3">
         <v>129233.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>11077.007283999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45589</v>
       </c>
@@ -6627,8 +6684,11 @@
       <c r="E20" s="3">
         <v>130066.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>11180.5828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45590</v>
       </c>
@@ -6644,8 +6704,11 @@
       <c r="E21" s="3">
         <v>129893.32</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>11132.24121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45593</v>
       </c>
@@ -6661,8 +6724,11 @@
       <c r="E22" s="3">
         <v>131212.57999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>11102.380609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45594</v>
       </c>
@@ -6678,8 +6744,11 @@
       <c r="E23" s="3">
         <v>130729.93</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>11072.925624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45595</v>
       </c>
@@ -6695,8 +6764,11 @@
       <c r="E24" s="3">
         <v>130639.33</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>11096.071900999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45596</v>
       </c>
@@ -6712,8 +6784,11 @@
       <c r="E25" s="3">
         <v>129713.33</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>11113.630809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45597</v>
       </c>
@@ -6729,8 +6804,11 @@
       <c r="E26" s="3">
         <v>128120.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>11062.223228999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45600</v>
       </c>
@@ -6746,8 +6824,11 @@
       <c r="E27" s="3">
         <v>130514.79</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>11177.618531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45601</v>
       </c>
@@ -6763,8 +6844,11 @@
       <c r="E28" s="3">
         <v>130660.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>11189.85248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45602</v>
       </c>
@@ -6780,8 +6864,11 @@
       <c r="E29" s="3">
         <v>130340.92</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>11206.252865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45603</v>
       </c>
@@ -6797,8 +6884,11 @@
       <c r="E30" s="3">
         <v>129681.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>11278.553821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45604</v>
       </c>
@@ -6814,8 +6904,11 @@
       <c r="E31" s="3">
         <v>127829.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>11316.76584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45607</v>
       </c>
@@ -6831,8 +6924,11 @@
       <c r="E32" s="3">
         <v>127873.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>11295.418186999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45608</v>
       </c>
@@ -6848,8 +6944,11 @@
       <c r="E33" s="3">
         <v>127829.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>11140.150078999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45609</v>
       </c>
@@ -6865,8 +6964,11 @@
       <c r="E34" s="3">
         <v>127733.88</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>11149.394624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45610</v>
       </c>
@@ -6882,8 +6984,11 @@
       <c r="E35" s="3">
         <v>127791.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>11172.765740999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45614</v>
       </c>
@@ -6899,8 +7004,11 @@
       <c r="E36" s="3">
         <v>127768.19</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>11192.533303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45615</v>
       </c>
@@ -6916,8 +7024,11 @@
       <c r="E37" s="3">
         <v>128197.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>11239.825902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45617</v>
       </c>
@@ -6933,8 +7044,11 @@
       <c r="E38" s="3">
         <v>126922.11</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>11292.741137999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45618</v>
       </c>
@@ -6950,8 +7064,11 @@
       <c r="E39" s="3">
         <v>129125.51</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>11237.37573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45621</v>
       </c>
@@ -6967,8 +7084,11 @@
       <c r="E40" s="3">
         <v>129036.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>11263.320168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45622</v>
       </c>
@@ -6984,8 +7104,11 @@
       <c r="E41" s="3">
         <v>129922.38</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>11254.338121000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45623</v>
       </c>
@@ -7001,8 +7124,11 @@
       <c r="E42" s="3">
         <v>127668.61</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>11133.033982000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45624</v>
       </c>
@@ -7018,8 +7144,11 @@
       <c r="E43" s="3">
         <v>124610.41</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>11057.010329000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45625</v>
       </c>
@@ -7035,8 +7164,11 @@
       <c r="E44" s="3">
         <v>125667.83</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>11088.485752000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45628</v>
       </c>
@@ -7052,8 +7184,11 @@
       <c r="E45" s="3">
         <v>125235.54</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>11124.038197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45629</v>
       </c>
@@ -7069,8 +7204,11 @@
       <c r="E46" s="3">
         <v>126139.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>11043.376823000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45630</v>
       </c>
@@ -7086,8 +7224,11 @@
       <c r="E47" s="3">
         <v>126087.02</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>11081.339268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45631</v>
       </c>
@@ -7103,8 +7244,11 @@
       <c r="E48" s="3">
         <v>127857.58</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>11070.196459000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45632</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="E49" s="3">
         <v>125945.67</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>11007.408052999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45635</v>
       </c>
@@ -7137,8 +7284,11 @@
       <c r="E50" s="3">
         <v>127210.19</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>11007.408052999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45636</v>
       </c>
@@ -7154,8 +7304,11 @@
       <c r="E51" s="3">
         <v>128228.49</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>11076.335912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45637</v>
       </c>
@@ -7171,8 +7324,11 @@
       <c r="E52" s="3">
         <v>129593.31</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>11234.641379000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45638</v>
       </c>
@@ -7188,8 +7344,11 @@
       <c r="E53" s="3">
         <v>126042.21</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>11158.619379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45639</v>
       </c>
@@ -7205,8 +7364,11 @@
       <c r="E54" s="3">
         <v>124612.22</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>11002.684442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45642</v>
       </c>
@@ -7222,8 +7384,11 @@
       <c r="E55" s="3">
         <v>123560.06</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>10803.550020999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45643</v>
       </c>
@@ -7239,8 +7404,11 @@
       <c r="E56" s="3">
         <v>124698.04</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>10718.697704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45644</v>
       </c>
@@ -7256,8 +7424,11 @@
       <c r="E57" s="3">
         <v>120771.88</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>10718.697704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45645</v>
       </c>
@@ -7273,8 +7444,11 @@
       <c r="E58" s="3">
         <v>121187.91</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>10722.122278000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45646</v>
       </c>
@@ -7290,8 +7464,11 @@
       <c r="E59" s="3">
         <v>122102.15</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>10818.542012</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45649</v>
       </c>
@@ -7307,8 +7484,11 @@
       <c r="E60" s="3">
         <v>120766.57</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>10786.228848000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45650</v>
       </c>
@@ -7324,8 +7504,11 @@
       <c r="E61" s="3">
         <v>120766.57</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>10792.639749</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45652</v>
       </c>
@@ -7341,8 +7524,11 @@
       <c r="E62" s="3">
         <v>121077.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>10766.524673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45653</v>
       </c>
@@ -7358,8 +7544,11 @@
       <c r="E63" s="3">
         <v>120269.31</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>10676.426094</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45656</v>
       </c>
@@ -7375,8 +7564,11 @@
       <c r="E64" s="3">
         <v>120283.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>10597.68447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45657</v>
       </c>
@@ -7392,8 +7584,11 @@
       <c r="E65" s="3">
         <v>120283.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>10603.594494999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45659</v>
       </c>
@@ -7409,8 +7604,11 @@
       <c r="E66" s="3">
         <v>120125.39</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>10643.805367999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45660</v>
       </c>
@@ -7426,8 +7624,11 @@
       <c r="E67" s="3">
         <v>118532.68</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>10658.576499999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45663</v>
       </c>
@@ -7443,8 +7644,11 @@
       <c r="E68" s="3">
         <v>120021.52</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>10710.955532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45664</v>
       </c>
@@ -7460,8 +7664,11 @@
       <c r="E69" s="3">
         <v>121162.66</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>10699.747600999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45665</v>
       </c>
@@ -7477,8 +7684,11 @@
       <c r="E70" s="3">
         <v>119624.51</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>10711.934073</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45666</v>
       </c>
@@ -7494,8 +7704,11 @@
       <c r="E71" s="3">
         <v>119780.56</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>10718.404125999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45667</v>
       </c>
@@ -7511,8 +7724,11 @@
       <c r="E72" s="3">
         <v>118856.48</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>10675.627274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45670</v>
       </c>
@@ -7528,8 +7744,11 @@
       <c r="E73" s="3">
         <v>119006.93</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>10634.206531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45671</v>
       </c>
@@ -7545,8 +7764,11 @@
       <c r="E74" s="3">
         <v>119298.67</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>10676.261273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45672</v>
       </c>
@@ -7562,8 +7784,11 @@
       <c r="E75" s="3">
         <v>122650.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>10676.261273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45673</v>
       </c>
@@ -7579,8 +7804,11 @@
       <c r="E76" s="3">
         <v>121234.14</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>10675.210026999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45674</v>
       </c>
@@ -7596,8 +7824,11 @@
       <c r="E77" s="3">
         <v>122350.38</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>10607.372679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45677</v>
       </c>
@@ -7613,8 +7844,11 @@
       <c r="E78" s="3">
         <v>122855.15</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>10570.048191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45678</v>
       </c>
@@ -7630,8 +7864,11 @@
       <c r="E79" s="3">
         <v>123338.34</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>10515.188211999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45679</v>
       </c>
@@ -7647,8 +7884,11 @@
       <c r="E80" s="3">
         <v>122971.77</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>10534.429247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45680</v>
       </c>
@@ -7664,8 +7904,11 @@
       <c r="E81" s="3">
         <v>122483.32</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>10501.702534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45681</v>
       </c>
@@ -7681,8 +7924,11 @@
       <c r="E82" s="3">
         <v>122446.94</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>10525.188989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45684</v>
       </c>
@@ -7698,8 +7944,11 @@
       <c r="E83" s="3">
         <v>124861.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>10528.001413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45685</v>
       </c>
@@ -7715,8 +7964,11 @@
       <c r="E84" s="3">
         <v>124055.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>10530.395587000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45686</v>
       </c>
@@ -7732,8 +7984,11 @@
       <c r="E85" s="3">
         <v>123432.12</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>10522.170726</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45687</v>
       </c>
@@ -7749,8 +8004,11 @@
       <c r="E86" s="3">
         <v>126912.78</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>10680.496370999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45688</v>
       </c>
@@ -7766,8 +8024,11 @@
       <c r="E87" s="3">
         <v>126134.94</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>10649.638467999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45691</v>
       </c>
@@ -7783,8 +8044,11 @@
       <c r="E88" s="3">
         <v>125970.46</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>10693.813815</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45692</v>
       </c>
@@ -7800,8 +8064,11 @@
       <c r="E89" s="3">
         <v>125147.42</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>10681.935701</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45693</v>
       </c>
@@ -7817,8 +8084,11 @@
       <c r="E90" s="3">
         <v>125534.07</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>10629.135528000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45694</v>
       </c>
@@ -7834,8 +8104,11 @@
       <c r="E91" s="3">
         <v>126224.74</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>10664.226579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45695</v>
       </c>
@@ -7851,8 +8124,11 @@
       <c r="E92" s="3">
         <v>124619.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>10648.420232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45698</v>
       </c>
@@ -7868,8 +8144,11 @@
       <c r="E93" s="3">
         <v>125571.81</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>10648.420232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45699</v>
       </c>
@@ -7885,8 +8164,11 @@
       <c r="E94" s="3">
         <v>126521.66</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>10686.253244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45700</v>
       </c>
@@ -7902,8 +8184,11 @@
       <c r="E95" s="3">
         <v>124380.21</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>10687.165011999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45701</v>
       </c>
@@ -7919,8 +8204,11 @@
       <c r="E96" s="3">
         <v>124850.18</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>10687.165011999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45702</v>
       </c>
@@ -7936,8 +8224,11 @@
       <c r="E97" s="3">
         <v>128218.59</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>10827.678162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45705</v>
       </c>
@@ -7953,8 +8244,11 @@
       <c r="E98" s="3">
         <v>128552.13</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>10882.034589999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45706</v>
       </c>
@@ -7970,8 +8264,11 @@
       <c r="E99" s="3">
         <v>128531.71</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>10872.440975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45707</v>
       </c>
@@ -7987,8 +8284,11 @@
       <c r="E100" s="3">
         <v>127308.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>10847.538070000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45708</v>
       </c>
@@ -8004,8 +8304,11 @@
       <c r="E101" s="3">
         <v>127600.58</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>10847.538070000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45709</v>
       </c>
@@ -8021,8 +8324,11 @@
       <c r="E102" s="3">
         <v>127128.06</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>10883.646675</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45712</v>
       </c>
@@ -8038,8 +8344,11 @@
       <c r="E103" s="3">
         <v>125401.38</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>10883.646675</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45713</v>
       </c>
@@ -8055,8 +8364,11 @@
       <c r="E104" s="3">
         <v>125979.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>10838.622155999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45714</v>
       </c>
@@ -8072,8 +8384,11 @@
       <c r="E105" s="3">
         <v>124768.71</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>10775.718602999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45715</v>
       </c>
@@ -8089,8 +8404,11 @@
       <c r="E106" s="3">
         <v>124798.96</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>10719.634187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45716</v>
       </c>
@@ -8106,8 +8424,11 @@
       <c r="E107" s="3">
         <v>122799.09</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>10693.115322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45721</v>
       </c>
@@ -8123,8 +8444,11 @@
       <c r="E108" s="3">
         <v>123046.85</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>10786.539397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45722</v>
       </c>
@@ -8140,8 +8464,11 @@
       <c r="E109" s="3">
         <v>123357.55</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>10787.463927999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45723</v>
       </c>
@@ -8157,8 +8484,11 @@
       <c r="E110" s="3">
         <v>125034.63</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>10822.231807</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45726</v>
       </c>
@@ -8174,8 +8504,11 @@
       <c r="E111" s="3">
         <v>124519.38</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>10828.342773</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45727</v>
       </c>
@@ -8191,8 +8524,11 @@
       <c r="E112" s="3">
         <v>124519.38</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>10885.508752</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45728</v>
       </c>
@@ -8208,8 +8544,11 @@
       <c r="E113" s="3">
         <v>123863.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>10885.508752</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45729</v>
       </c>
@@ -8225,8 +8564,11 @@
       <c r="E114" s="3">
         <v>125637.11</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>10910.789191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45730</v>
       </c>
@@ -8242,8 +8584,11 @@
       <c r="E115" s="3">
         <v>128957.09</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>10890.779734</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45733</v>
       </c>
@@ -8259,8 +8604,11 @@
       <c r="E116" s="3">
         <v>130833.96</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>10895.863558999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45734</v>
       </c>
@@ -8276,8 +8624,11 @@
       <c r="E117" s="3">
         <v>131474.73000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>10945.912866999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45735</v>
       </c>
@@ -8293,8 +8644,11 @@
       <c r="E118" s="3">
         <v>132508.45000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>10996.83576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45736</v>
       </c>
@@ -8310,8 +8664,11 @@
       <c r="E119" s="3">
         <v>131954.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>10937.456523999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45737</v>
       </c>
@@ -8327,8 +8684,11 @@
       <c r="E120" s="3">
         <v>132344.88</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>10963.010233000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45740</v>
       </c>
@@ -8344,8 +8704,11 @@
       <c r="E121" s="3">
         <v>131321.44</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>10924.551122000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45741</v>
       </c>
@@ -8361,8 +8724,11 @@
       <c r="E122" s="3">
         <v>132067.69</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>10937.677298000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45742</v>
       </c>
@@ -8378,8 +8744,11 @@
       <c r="E123" s="3">
         <v>132519.63</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>10933.843564000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45743</v>
       </c>
@@ -8395,8 +8764,11 @@
       <c r="E124" s="3">
         <v>133148.75</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>10946.063774</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45744</v>
       </c>
@@ -8412,8 +8784,11 @@
       <c r="E125" s="3">
         <v>131902.18</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>10951.012783</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45747</v>
       </c>
@@ -8429,8 +8804,11 @@
       <c r="E126" s="3">
         <v>130259.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>10995.855501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45748</v>
       </c>
@@ -8446,8 +8824,11 @@
       <c r="E127" s="3">
         <v>131147.29999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>10975.137001999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45749</v>
       </c>
@@ -8463,8 +8844,11 @@
       <c r="E128" s="3">
         <v>131190.34</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>10971.141105000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45750</v>
       </c>
@@ -8480,8 +8864,11 @@
       <c r="E129" s="3">
         <v>131140.65</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>11119.069708000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45751</v>
       </c>
@@ -8497,8 +8884,11 @@
       <c r="E130" s="3">
         <v>127256</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>11134.652222000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45754</v>
       </c>
@@ -8514,8 +8904,11 @@
       <c r="E131" s="3">
         <v>125588.09</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>11134.652222000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45755</v>
       </c>
@@ -8531,8 +8924,11 @@
       <c r="E132" s="3">
         <v>123931.89</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>11047.644947999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45756</v>
       </c>
@@ -8548,8 +8944,11 @@
       <c r="E133" s="3">
         <v>127795.93</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>11023.695645</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45757</v>
       </c>
@@ -8565,8 +8964,11 @@
       <c r="E134" s="3">
         <v>126354.75</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>10966.036646</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45758</v>
       </c>
@@ -8582,8 +8984,11 @@
       <c r="E135" s="3">
         <v>127682.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>11069.909092</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45761</v>
       </c>
@@ -8599,8 +9004,11 @@
       <c r="E136" s="3">
         <v>129453.91</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>11121.819232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45762</v>
       </c>
@@ -8616,8 +9024,11 @@
       <c r="E137" s="3">
         <v>129245.39</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>11086.602842</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45763</v>
       </c>
@@ -8633,8 +9044,11 @@
       <c r="E138" s="3">
         <v>128316.89</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>11081.212522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45764</v>
       </c>
@@ -8650,8 +9064,11 @@
       <c r="E139" s="3">
         <v>129650.03</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>11086.642276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45769</v>
       </c>
@@ -8667,8 +9084,11 @@
       <c r="E140" s="3">
         <v>130464.38</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>10993.02886</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45770</v>
       </c>
@@ -8684,8 +9104,11 @@
       <c r="E141" s="3">
         <v>132216.07</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>11042.011238999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45771</v>
       </c>
@@ -8701,8 +9124,11 @@
       <c r="E142" s="3">
         <v>134580.43</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>11132.298994000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45772</v>
       </c>
@@ -8718,8 +9144,11 @@
       <c r="E143" s="3">
         <v>134739.28</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>11163.907663</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45775</v>
       </c>
@@ -8735,8 +9164,11 @@
       <c r="E144" s="3">
         <v>135015.89000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>11191.518932000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45776</v>
       </c>
@@ -8752,8 +9184,11 @@
       <c r="E145" s="3">
         <v>135092.99</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>11215.927358000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45777</v>
       </c>
@@ -8769,8 +9204,11 @@
       <c r="E146" s="3">
         <v>135066.97</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>11252.529156000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45779</v>
       </c>
@@ -8786,8 +9224,11 @@
       <c r="E147" s="3">
         <v>135133.88</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>11252.529156000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45782</v>
       </c>
@@ -8803,8 +9244,11 @@
       <c r="E148" s="3">
         <v>133491.23000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>11219.750203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45783</v>
       </c>
@@ -8820,8 +9264,11 @@
       <c r="E149" s="3">
         <v>133515.82</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>11299.043441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45784</v>
       </c>
@@ -8837,8 +9284,11 @@
       <c r="E150" s="3">
         <v>133397.51999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>11346.575178999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45785</v>
       </c>
@@ -8854,8 +9304,11 @@
       <c r="E151" s="3">
         <v>136231.9</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>11440.00635</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45786</v>
       </c>
@@ -8871,8 +9324,11 @@
       <c r="E152" s="3">
         <v>136511.88</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>11482.242896</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45789</v>
       </c>
@@ -8888,8 +9344,11 @@
       <c r="E153" s="3">
         <v>136563.18</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>11471.766915</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45790</v>
       </c>
@@ -8905,8 +9364,11 @@
       <c r="E154" s="3">
         <v>138963.10999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>11487.750916000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45791</v>
       </c>
@@ -8922,8 +9384,11 @@
       <c r="E155" s="3">
         <v>138422.84</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>11438.394816</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45792</v>
       </c>
@@ -8939,8 +9404,11 @@
       <c r="E156" s="3">
         <v>139334.38</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>11438.394816</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45793</v>
       </c>
@@ -8956,8 +9424,11 @@
       <c r="E157" s="3">
         <v>139187.39000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>11501.763355999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45796</v>
       </c>
@@ -8973,8 +9444,11 @@
       <c r="E158" s="3">
         <v>139636.41</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>11554.245873</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45797</v>
       </c>
@@ -8990,8 +9464,11 @@
       <c r="E159" s="3">
         <v>140109.63</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>11524.836576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45798</v>
       </c>
@@ -9007,8 +9484,11 @@
       <c r="E160" s="3">
         <v>137881.26999999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>11481.637656999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45799</v>
       </c>
@@ -9024,8 +9504,11 @@
       <c r="E161" s="3">
         <v>137272.59</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>11525.702278999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45800</v>
       </c>
@@ -9041,8 +9524,11 @@
       <c r="E162" s="3">
         <v>137824.29</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>11538.097507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45803</v>
       </c>
@@ -9058,8 +9544,11 @@
       <c r="E163" s="3">
         <v>138136.14000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>11553.315006000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45804</v>
       </c>
@@ -9075,8 +9564,11 @@
       <c r="E164" s="3">
         <v>139541.23000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>11611.387575000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45805</v>
       </c>
@@ -9092,8 +9584,11 @@
       <c r="E165" s="3">
         <v>138887.81</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>11573.975656000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45806</v>
       </c>
@@ -9109,8 +9604,11 @@
       <c r="E166" s="3">
         <v>138533.70000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>11572.549281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45807</v>
       </c>
@@ -9126,8 +9624,11 @@
       <c r="E167" s="3">
         <v>137026.62</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>11572.549281</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45810</v>
       </c>
@@ -9143,8 +9644,11 @@
       <c r="E168" s="3">
         <v>136786.65</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>11501.188667</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45811</v>
       </c>
@@ -9160,8 +9664,11 @@
       <c r="E169" s="3">
         <v>137546.26</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>11504.147005999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45812</v>
       </c>
@@ -9177,8 +9684,11 @@
       <c r="E170" s="3">
         <v>137001.57999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>11534.495883</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45813</v>
       </c>
@@ -9194,8 +9704,11 @@
       <c r="E171" s="3">
         <v>136236.37</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>11523.003987</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45814</v>
       </c>
@@ -9211,8 +9724,11 @@
       <c r="E172" s="3">
         <v>136102.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>11523.003987</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45817</v>
       </c>
@@ -9228,8 +9744,11 @@
       <c r="E173" s="3">
         <v>135699.38</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>11510.735371000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45818</v>
       </c>
@@ -9245,8 +9764,11 @@
       <c r="E174" s="3">
         <v>136436.07</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>11469.204188</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45819</v>
       </c>
@@ -9262,8 +9784,11 @@
       <c r="E175" s="3">
         <v>137128.04</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>11501.108989</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45820</v>
       </c>
@@ -9279,8 +9804,11 @@
       <c r="E176" s="3">
         <v>137799.74</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>11495.994081000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45821</v>
       </c>
@@ -9296,8 +9824,11 @@
       <c r="E177" s="3">
         <v>137212.63</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>11517.511026</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45824</v>
       </c>
@@ -9313,8 +9844,11 @@
       <c r="E178" s="3">
         <v>139255.91</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>11539.224668000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45825</v>
       </c>
@@ -9330,8 +9864,11 @@
       <c r="E179" s="3">
         <v>138840.01999999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>11553.187776000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45826</v>
       </c>
@@ -9347,8 +9884,11 @@
       <c r="E180" s="3">
         <v>138716.64000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>11581.369804</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45828</v>
       </c>
@@ -9364,8 +9904,11 @@
       <c r="E181" s="3">
         <v>137115.82999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>11645.022854000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45831</v>
       </c>
@@ -9381,8 +9924,11 @@
       <c r="E182" s="3">
         <v>136550.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>11625.925598</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45832</v>
       </c>
@@ -9398,38 +9944,41 @@
       <c r="E183" s="3">
         <v>137164.60999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>11595.74804</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="C184" s="2"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="C185" s="2"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="C186" s="2"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
@@ -9445,7 +9994,7 @@
       <c r="A196" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{69B25821-3913-4441-A46B-D72EC7900227}"/>
+  <autoFilter ref="A1:F1" xr:uid="{69B25821-3913-4441-A46B-D72EC7900227}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/data/data_perfil_mensal.xlsx
+++ b/data/data_perfil_mensal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82f3955c2e385cb8/Desktop/Desktop/My R Packages/perfil_mensal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94378A75-09DF-4DEC-A35C-5C1F45E61F2C}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E44F9D3-5835-4225-874D-377A495EEA6A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{21FB473E-04F3-47BE-90E3-7A7B985E5A04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{21FB473E-04F3-47BE-90E3-7A7B985E5A04}"/>
   </bookViews>
   <sheets>
     <sheet name="reta_aloc" sheetId="1" r:id="rId1"/>
@@ -454,10 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2BB35-ACDB-4899-AD4E-1A94E7C738C0}">
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F291" sqref="F291:F294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6268,6 +6269,87 @@
         <v>11595.74804</v>
       </c>
     </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B291">
+        <v>1.1013470400000001</v>
+      </c>
+      <c r="C291" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D291">
+        <v>5.5427</v>
+      </c>
+      <c r="E291" s="3">
+        <v>135767</v>
+      </c>
+      <c r="F291">
+        <v>11581.971783999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B292">
+        <v>1.10627656</v>
+      </c>
+      <c r="C292" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D292">
+        <v>5.5145</v>
+      </c>
+      <c r="E292" s="3">
+        <v>137113</v>
+      </c>
+      <c r="F292">
+        <v>11618.728372</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B293">
+        <v>1.10623111</v>
+      </c>
+      <c r="C293" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D293">
+        <v>5.4759000000000002</v>
+      </c>
+      <c r="E293" s="3">
+        <v>136865</v>
+      </c>
+      <c r="F293">
+        <v>11650.596162</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B294">
+        <f>(1+0.67%)*B293</f>
+        <v>1.1136428584369999</v>
+      </c>
+      <c r="C294" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D294">
+        <v>5.4570999999999996</v>
+      </c>
+      <c r="E294" s="3">
+        <v>138854</v>
+      </c>
+      <c r="F294">
+        <v>11742.771423</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{A7E2BB35-ACDB-4899-AD4E-1A94E7C738C0}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6278,8 +6360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B25821-3913-4441-A46B-D72EC7900227}">
   <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9949,22 +10032,84 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-      <c r="C184" s="2"/>
-      <c r="E184" s="3"/>
+      <c r="A184" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B184">
+        <v>1.05270117</v>
+      </c>
+      <c r="C184" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D184">
+        <v>5.5427</v>
+      </c>
+      <c r="E184" s="3">
+        <v>135767</v>
+      </c>
+      <c r="F184">
+        <v>11581.971783999999</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-      <c r="C185" s="2"/>
-      <c r="E185" s="3"/>
+      <c r="A185" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B185">
+        <v>1.05900427</v>
+      </c>
+      <c r="C185" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D185">
+        <v>5.5145</v>
+      </c>
+      <c r="E185" s="3">
+        <v>137113</v>
+      </c>
+      <c r="F185">
+        <v>11618.728372</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
-      <c r="C186" s="2"/>
-      <c r="E186" s="3"/>
+      <c r="A186" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B186">
+        <v>1.05840877</v>
+      </c>
+      <c r="C186" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D186">
+        <v>5.4759000000000002</v>
+      </c>
+      <c r="E186" s="3">
+        <v>136865</v>
+      </c>
+      <c r="F186">
+        <v>11650.596162</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B187">
+        <v>1.0717839899999999</v>
+      </c>
+      <c r="C187" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D187">
+        <v>5.4570999999999996</v>
+      </c>
+      <c r="E187" s="3">
+        <v>138854</v>
+      </c>
+      <c r="F187">
+        <v>11742.771423</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
@@ -10001,10 +10146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306A59AC-B162-462F-9921-512153E3D23A}">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11715,6 +11860,28 @@
       </c>
       <c r="C155">
         <v>2.0826239499999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B156">
+        <v>1.0897460400000001</v>
+      </c>
+      <c r="C156">
+        <v>2.0844693200000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B157">
+        <v>1.09028123</v>
+      </c>
+      <c r="C157">
+        <v>2.0855372499999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_perfil_mensal.xlsx
+++ b/data/data_perfil_mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82f3955c2e385cb8/Desktop/Desktop/My R Packages/perfil_mensal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E44F9D3-5835-4225-874D-377A495EEA6A}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E4F05A-A133-47AD-BDE1-29789A7B36CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{21FB473E-04F3-47BE-90E3-7A7B985E5A04}"/>
   </bookViews>
@@ -454,22 +454,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2BB35-ACDB-4899-AD4E-1A94E7C738C0}">
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F291" sqref="F291:F294"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F295" sqref="F295:F317"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45412</v>
       </c>
@@ -509,7 +509,7 @@
         <v>11096.938936</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45414</v>
       </c>
@@ -529,7 +529,7 @@
         <v>11140.805899000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45415</v>
       </c>
@@ -549,7 +549,7 @@
         <v>11189.930128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45418</v>
       </c>
@@ -569,7 +569,7 @@
         <v>11141.449685</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45419</v>
       </c>
@@ -589,7 +589,7 @@
         <v>11187.044328</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45420</v>
       </c>
@@ -609,7 +609,7 @@
         <v>11192.020366999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45421</v>
       </c>
@@ -629,7 +629,7 @@
         <v>11228.284643999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45422</v>
       </c>
@@ -649,7 +649,7 @@
         <v>11202.690544999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45425</v>
       </c>
@@ -669,7 +669,7 @@
         <v>11199.188434</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45426</v>
       </c>
@@ -689,7 +689,7 @@
         <v>11226.121918000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45427</v>
       </c>
@@ -709,7 +709,7 @@
         <v>11241.139521999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45428</v>
       </c>
@@ -729,7 +729,7 @@
         <v>11300.721777000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45429</v>
       </c>
@@ -749,7 +749,7 @@
         <v>11287.86492</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45432</v>
       </c>
@@ -769,7 +769,7 @@
         <v>11274.142426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45433</v>
       </c>
@@ -789,7 +789,7 @@
         <v>11277.197028000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45434</v>
       </c>
@@ -809,7 +809,7 @@
         <v>11255.380284000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45435</v>
       </c>
@@ -829,7 +829,7 @@
         <v>11285.582027</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45436</v>
       </c>
@@ -849,7 +849,7 @@
         <v>11274.249315999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45439</v>
       </c>
@@ -869,7 +869,7 @@
         <v>11255.636145</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45440</v>
       </c>
@@ -889,7 +889,7 @@
         <v>11267.403573</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45441</v>
       </c>
@@ -909,7 +909,7 @@
         <v>11232.909729000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45443</v>
       </c>
@@ -929,7 +929,7 @@
         <v>11273.777151</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45446</v>
       </c>
@@ -949,7 +949,7 @@
         <v>11267.321919</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45447</v>
       </c>
@@ -969,7 +969,7 @@
         <v>11239.636055000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45448</v>
       </c>
@@ -989,7 +989,7 @@
         <v>11207.748804000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45449</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>11241.164115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45450</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>11146.388665</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45453</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>11147.277776000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45454</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>11123.076816000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45455</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>11018.654197</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45456</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>11067.496566</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45457</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>11098.705883000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45460</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>11110.560384</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45461</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>11115.131189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45462</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>11111.951881999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45463</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>11124.583661999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45464</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>11182.561242</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45467</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>11190.813894000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45468</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>11147.874027</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45469</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>11120.152392</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45470</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>11111.794146</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45471</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>11020.022715999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45474</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>10957.969476</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45475</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>10967.975601</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45476</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>11059.297742000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45477</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>11149.461246000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45478</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>11209.024702999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45481</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>11204.820904</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45482</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>11206.737294</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45483</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>11309.501711999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45484</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>11390.301588</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45485</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>11400.119355999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45488</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>11366.029649</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45489</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>11393.430059</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45490</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>11391.84496</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45491</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>11318.338346</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45492</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>11286.876624</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45495</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>11310.890437</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45496</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>11238.566523</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45497</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>11247.456565</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45498</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>11242.356899</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45499</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>11298.006347</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45502</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>11292.517723999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45503</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>11321.900959000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45504</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>11376.651153000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45505</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>11419.077249</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45506</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>11583.722064</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45509</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>11589.967578</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45510</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>11519.306847</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45511</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>11533.313227000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45512</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>11599.40518</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45513</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>11695.782969</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45516</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>11732.171716000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45517</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>11780.707107</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45518</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>11784.953157</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45519</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>11752.14014</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45520</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>11719.093147</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45523</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>11667.912122</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45524</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>11598.806481</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45525</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>11606.145097000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45526</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>11589.581654</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45527</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>11637.40468</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45530</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>11597.330690000001</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45531</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>11579.689688</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45532</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>11534.168736</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45533</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>11522.085944</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45534</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>11464.326182999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45537</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>11430.485386</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45538</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>11416.427901999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45539</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>11457.327305999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45540</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>11510.087536999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45541</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>11532.4007</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45544</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>11516.827655999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45545</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>11490.002323000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45546</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>11484.295255999999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45547</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>11417.413825</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45548</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>11454.571861</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45551</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>11414.758644</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45552</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>11418.153920999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45553</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>11425.202968</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45554</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>11339.342149</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45555</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>11269.864535999999</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45558</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>11284.130227</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45559</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>11335.767906999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45560</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>11349.256568000001</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45561</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>11345.941685</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45562</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>11342.370854000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45565</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>11301.111945000001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45566</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>11321.016347000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45567</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>11323.973563</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45568</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>11313.836579000001</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45569</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>11275.780406</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45572</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>11327.340199</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45573</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>11362.858698</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45574</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>11288.753414000001</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45575</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>11321.156239</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45576</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>11320.048672000001</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45579</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>11296.223859</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45580</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>11255.662695000001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45581</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>11215.074903000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45582</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>11202.495983000001</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45583</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>11141.423776</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45586</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>11127.671936000001</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45587</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>11123.966766</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45588</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>11077.007283999999</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45589</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>11180.5828</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45590</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>11132.24121</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45593</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>11102.380609</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45594</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>11072.925624</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45595</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>11096.071900999999</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45596</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>11113.630809</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>11062.223228999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45600</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>11177.618531</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45601</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>11189.85248</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45602</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>11206.252865</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45603</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>11278.553821</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45604</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>11316.76584</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45607</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>11295.418186999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45608</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>11140.150078999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45609</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>11149.394624</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45610</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>11172.765740999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45614</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>11192.533303</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45615</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>11239.825902</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45617</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>11292.741137999999</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45618</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>11237.37573</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45621</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>11263.320168</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45622</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>11254.338121000001</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45623</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>11133.033982000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45624</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>11057.010329000001</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45625</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>11088.485752000001</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45628</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>11124.038197</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45629</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>11043.376823000001</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45630</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>11081.339268</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45631</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>11070.196459000001</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45632</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>11007.408052999999</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>11007.408052999999</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45636</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>11076.335912</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45637</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>11234.641379000001</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45638</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>11158.619379</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45639</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>11002.684442</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45642</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>10803.550020999999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45643</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>10718.697704</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45644</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>10718.697704</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45645</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>10722.122278000001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45646</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>10818.542012</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45649</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>10786.228848000001</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45650</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>10792.639749</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45652</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>10766.524673</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45653</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>10676.426094</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45656</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>10597.68447</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45657</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>10603.594494999999</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45659</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>10643.805367999999</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45660</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>10658.576499999999</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45663</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>10710.955532</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45664</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>10699.747600999999</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45665</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>10711.934073</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45666</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>10718.404125999999</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45667</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>10675.627274</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45670</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>10634.206531</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45671</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>10676.261273</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45672</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>10676.261273</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45673</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>10675.210026999999</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45674</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>10607.372679</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45677</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>10570.048191</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45678</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>10515.188211999999</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45679</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>10534.429247</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45680</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>10501.702534</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>45681</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>10525.188989</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45684</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>10528.001413</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>45685</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>10530.395587000001</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>45686</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>10522.170726</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45687</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>10680.496370999999</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45688</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>10649.638467999999</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>45691</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>10693.813815</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45692</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>10681.935701</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>45693</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>10629.135528000001</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>45694</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>10664.226579</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>45695</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>10648.420232</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>45698</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>10648.420232</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>45699</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>10686.253244</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>45700</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>10687.165011999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>45701</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>10687.165011999999</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45702</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>10827.678162</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45705</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>10882.034589999999</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45706</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>10872.440975</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45707</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>10847.538070000001</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45708</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>10847.538070000001</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45709</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>10883.646675</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45712</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>10883.646675</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45713</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>10838.622155999999</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45714</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>10775.718602999999</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45715</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>10719.634187</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45716</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>10693.115322</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45721</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>10786.539397</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45722</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>10787.463927999999</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45723</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>10822.231807</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45726</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>10828.342773</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45727</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>10885.508752</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45728</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>10885.508752</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45729</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>10910.789191</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45730</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>10890.779734</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45733</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>10895.863558999999</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45734</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>10945.912866999999</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45735</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>10996.83576</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45736</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>10937.456523999999</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45737</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>10963.010233000001</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45740</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>10924.551122000001</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45741</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>10937.677298000001</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45742</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>10933.843564000001</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45743</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>10946.063774</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45744</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>10951.012783</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45747</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>10995.855501</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45748</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>10975.137001999999</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>45749</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>10971.141105000001</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>45750</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>11119.069708000001</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>45751</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>11134.652222000001</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>45754</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>11134.652222000001</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>45755</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>11047.644947999999</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>45756</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>11023.695645</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45757</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>10966.036646</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45758</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>11069.909092</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45761</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>11121.819232</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>45762</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>11086.602842</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45763</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>11081.212522</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>45764</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>11086.642276</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45769</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>10993.02886</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>45770</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>11042.011238999999</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45771</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>11132.298994000001</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>45772</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>11163.907663</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>45775</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>11191.518932000001</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>45776</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>11215.927358000001</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>45777</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>11252.529156000001</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>45779</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>11252.529156000001</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>45782</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>11219.750203</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>45783</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>11299.043441</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>45784</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>11346.575178999999</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>45785</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>11440.00635</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>45786</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>11482.242896</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>45789</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>11471.766915</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>45790</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>11487.750916000001</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>45791</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>11438.394816</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>45792</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>11438.394816</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>45793</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>11501.763355999999</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>45796</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>11554.245873</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>45797</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>11524.836576</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>45798</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>11481.637656999999</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>45799</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>11525.702278999999</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45800</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>11538.097507</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>45803</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>11553.315006000001</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>45804</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>11611.387575000001</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>45805</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>11573.975656000001</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>45806</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>11572.549281</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>45807</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>11572.549281</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>45810</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>11501.188667</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>45811</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>11504.147005999999</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>45812</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>11534.495883</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>45813</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>11523.003987</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>45814</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>11523.003987</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>45817</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>11510.735371000001</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>45818</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>11469.204188</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>45819</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>11501.108989</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>45820</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>11495.994081000001</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>45821</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>11517.511026</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>45824</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>11539.224668000001</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>45825</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>11553.187776000001</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>45826</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>11581.369804</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>45828</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>11645.022854000001</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>45831</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>11625.925598</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>45832</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>11595.74804</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>45833</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>11581.971783999999</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>45834</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>11618.728372</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>45835</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>11650.596162</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>45838</v>
       </c>
@@ -6348,6 +6348,466 @@
       </c>
       <c r="F294">
         <v>11742.771423</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B295">
+        <v>1.11242866</v>
+      </c>
+      <c r="C295" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D295">
+        <v>5.4511000000000003</v>
+      </c>
+      <c r="E295" s="3">
+        <v>139549</v>
+      </c>
+      <c r="F295">
+        <v>11760.125684000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B296">
+        <v>1.1107079099999999</v>
+      </c>
+      <c r="C296" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D296">
+        <v>5.4512</v>
+      </c>
+      <c r="E296" s="3">
+        <v>139050</v>
+      </c>
+      <c r="F296">
+        <v>11738.976639</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B297">
+        <v>1.11214681</v>
+      </c>
+      <c r="C297" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D297">
+        <v>5.4207999999999998</v>
+      </c>
+      <c r="E297" s="3">
+        <v>140927</v>
+      </c>
+      <c r="F297">
+        <v>11743.877037</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B298">
+        <v>1.1120295600000001</v>
+      </c>
+      <c r="C298" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D298">
+        <v>5.4089999999999998</v>
+      </c>
+      <c r="E298" s="3">
+        <v>141263</v>
+      </c>
+      <c r="F298">
+        <v>11737.581273</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B299">
+        <v>1.1086461700000001</v>
+      </c>
+      <c r="C299" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D299">
+        <v>5.4551999999999996</v>
+      </c>
+      <c r="E299" s="3">
+        <v>139489</v>
+      </c>
+      <c r="F299">
+        <v>11698.733249000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B300">
+        <v>1.1066244999999999</v>
+      </c>
+      <c r="C300" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D300">
+        <v>5.4570999999999996</v>
+      </c>
+      <c r="E300" s="3">
+        <v>139302</v>
+      </c>
+      <c r="F300">
+        <v>11652.332112</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B301">
+        <v>1.1035551299999999</v>
+      </c>
+      <c r="C301" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D301">
+        <v>5.4626000000000001</v>
+      </c>
+      <c r="E301" s="3">
+        <v>137480</v>
+      </c>
+      <c r="F301">
+        <v>11617.707809</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B302">
+        <v>1.1015037000000001</v>
+      </c>
+      <c r="C302" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D302">
+        <v>5.5433000000000003</v>
+      </c>
+      <c r="E302" s="3">
+        <v>136743</v>
+      </c>
+      <c r="F302">
+        <v>11611.020655</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B303">
+        <v>1.1019555299999999</v>
+      </c>
+      <c r="C303" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D303">
+        <v>5.5721999999999996</v>
+      </c>
+      <c r="E303" s="3">
+        <v>136187</v>
+      </c>
+      <c r="F303">
+        <v>11656.098128</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B304">
+        <v>1.1017281999999999</v>
+      </c>
+      <c r="C304" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D304">
+        <v>5.5594999999999999</v>
+      </c>
+      <c r="E304" s="3">
+        <v>135298</v>
+      </c>
+      <c r="F304">
+        <v>11629.233174999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B305">
+        <v>1.1003025799999999</v>
+      </c>
+      <c r="C305" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D305">
+        <v>5.5575999999999999</v>
+      </c>
+      <c r="E305" s="3">
+        <v>135250</v>
+      </c>
+      <c r="F305">
+        <v>11564.396108999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B306">
+        <v>1.09765197</v>
+      </c>
+      <c r="C306" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D306">
+        <v>5.5721999999999996</v>
+      </c>
+      <c r="E306" s="3">
+        <v>135510</v>
+      </c>
+      <c r="F306">
+        <v>11508.698645</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B307">
+        <v>1.09826128</v>
+      </c>
+      <c r="C307" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D307">
+        <v>5.5736999999999997</v>
+      </c>
+      <c r="E307" s="3">
+        <v>135564</v>
+      </c>
+      <c r="F307">
+        <v>11544.074012999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B308">
+        <v>1.09624605</v>
+      </c>
+      <c r="C308" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D308">
+        <v>5.5465999999999998</v>
+      </c>
+      <c r="E308" s="3">
+        <v>133381</v>
+      </c>
+      <c r="F308">
+        <v>11516.525738</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B309">
+        <v>1.09744759</v>
+      </c>
+      <c r="C309" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D309">
+        <v>5.5625</v>
+      </c>
+      <c r="E309" s="3">
+        <v>134166</v>
+      </c>
+      <c r="F309">
+        <v>11512.782471</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B310">
+        <v>1.09853556</v>
+      </c>
+      <c r="C310" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D310">
+        <v>5.5709</v>
+      </c>
+      <c r="E310" s="3">
+        <v>134035</v>
+      </c>
+      <c r="F310">
+        <v>11509.169782999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B311">
+        <v>1.1010353100000001</v>
+      </c>
+      <c r="C311" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D311">
+        <v>5.5537000000000001</v>
+      </c>
+      <c r="E311" s="3">
+        <v>135368</v>
+      </c>
+      <c r="F311">
+        <v>11530.936863000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B312">
+        <v>1.10033428</v>
+      </c>
+      <c r="C312" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D312">
+        <v>5.5239000000000003</v>
+      </c>
+      <c r="E312" s="3">
+        <v>133807</v>
+      </c>
+      <c r="F312">
+        <v>11541.367375</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B313">
+        <v>1.09957232</v>
+      </c>
+      <c r="C313" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D313">
+        <v>5.5426000000000002</v>
+      </c>
+      <c r="E313" s="3">
+        <v>133524</v>
+      </c>
+      <c r="F313">
+        <v>11516.758167</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B314">
+        <v>1.09707946</v>
+      </c>
+      <c r="C314" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D314">
+        <v>5.5876999999999999</v>
+      </c>
+      <c r="E314" s="3">
+        <v>132129</v>
+      </c>
+      <c r="F314">
+        <v>11521.754534</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B315">
+        <v>1.0985516099999999</v>
+      </c>
+      <c r="C315" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D315">
+        <v>5.5763999999999996</v>
+      </c>
+      <c r="E315" s="3">
+        <v>132725</v>
+      </c>
+      <c r="F315">
+        <v>11572.115229000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B316">
+        <v>1.0987306739124298</v>
+      </c>
+      <c r="C316" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D316">
+        <v>5.6033999999999997</v>
+      </c>
+      <c r="E316" s="3">
+        <v>133989</v>
+      </c>
+      <c r="F316">
+        <v>11579.413925999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B317">
+        <v>1.0977692845727565</v>
+      </c>
+      <c r="C317" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D317">
+        <v>5.6021000000000001</v>
+      </c>
+      <c r="E317" s="3">
+        <v>133071</v>
+      </c>
+      <c r="F317">
+        <v>11564.795442000001</v>
       </c>
     </row>
   </sheetData>
@@ -6358,20 +6818,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B25821-3913-4441-A46B-D72EC7900227}">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188:C210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6391,7 +6852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45565</v>
       </c>
@@ -6411,7 +6872,7 @@
         <v>11301.111945000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45566</v>
       </c>
@@ -6431,7 +6892,7 @@
         <v>11321.016347000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45567</v>
       </c>
@@ -6451,7 +6912,7 @@
         <v>11323.973563</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45568</v>
       </c>
@@ -6471,7 +6932,7 @@
         <v>11313.836579000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45569</v>
       </c>
@@ -6491,7 +6952,7 @@
         <v>11275.780406</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45572</v>
       </c>
@@ -6511,7 +6972,7 @@
         <v>11327.340199</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45573</v>
       </c>
@@ -6531,7 +6992,7 @@
         <v>11362.858698</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45574</v>
       </c>
@@ -6551,7 +7012,7 @@
         <v>11288.753414000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45575</v>
       </c>
@@ -6571,7 +7032,7 @@
         <v>11321.156239</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45576</v>
       </c>
@@ -6591,7 +7052,7 @@
         <v>11320.048672000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45579</v>
       </c>
@@ -6611,7 +7072,7 @@
         <v>11296.223859</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45580</v>
       </c>
@@ -6631,7 +7092,7 @@
         <v>11255.662695000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45581</v>
       </c>
@@ -6651,7 +7112,7 @@
         <v>11215.074903000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45582</v>
       </c>
@@ -6671,7 +7132,7 @@
         <v>11202.495983000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45583</v>
       </c>
@@ -6691,7 +7152,7 @@
         <v>11141.423776</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45586</v>
       </c>
@@ -6711,7 +7172,7 @@
         <v>11127.671936000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45587</v>
       </c>
@@ -6731,7 +7192,7 @@
         <v>11123.966766</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45588</v>
       </c>
@@ -6751,7 +7212,7 @@
         <v>11077.007283999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45589</v>
       </c>
@@ -6771,7 +7232,7 @@
         <v>11180.5828</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45590</v>
       </c>
@@ -6791,7 +7252,7 @@
         <v>11132.24121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45593</v>
       </c>
@@ -6811,7 +7272,7 @@
         <v>11102.380609</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45594</v>
       </c>
@@ -6831,7 +7292,7 @@
         <v>11072.925624</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45595</v>
       </c>
@@ -6851,7 +7312,7 @@
         <v>11096.071900999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45596</v>
       </c>
@@ -6871,7 +7332,7 @@
         <v>11113.630809</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45597</v>
       </c>
@@ -6891,7 +7352,7 @@
         <v>11062.223228999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45600</v>
       </c>
@@ -6911,7 +7372,7 @@
         <v>11177.618531</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45601</v>
       </c>
@@ -6931,7 +7392,7 @@
         <v>11189.85248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45602</v>
       </c>
@@ -6951,7 +7412,7 @@
         <v>11206.252865</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45603</v>
       </c>
@@ -6971,7 +7432,7 @@
         <v>11278.553821</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45604</v>
       </c>
@@ -6991,7 +7452,7 @@
         <v>11316.76584</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45607</v>
       </c>
@@ -7011,7 +7472,7 @@
         <v>11295.418186999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45608</v>
       </c>
@@ -7031,7 +7492,7 @@
         <v>11140.150078999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45609</v>
       </c>
@@ -7051,7 +7512,7 @@
         <v>11149.394624</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45610</v>
       </c>
@@ -7071,7 +7532,7 @@
         <v>11172.765740999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45614</v>
       </c>
@@ -7091,7 +7552,7 @@
         <v>11192.533303</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45615</v>
       </c>
@@ -7111,7 +7572,7 @@
         <v>11239.825902</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45617</v>
       </c>
@@ -7131,7 +7592,7 @@
         <v>11292.741137999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45618</v>
       </c>
@@ -7151,7 +7612,7 @@
         <v>11237.37573</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45621</v>
       </c>
@@ -7171,7 +7632,7 @@
         <v>11263.320168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45622</v>
       </c>
@@ -7191,7 +7652,7 @@
         <v>11254.338121000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45623</v>
       </c>
@@ -7211,7 +7672,7 @@
         <v>11133.033982000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45624</v>
       </c>
@@ -7231,7 +7692,7 @@
         <v>11057.010329000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45625</v>
       </c>
@@ -7251,7 +7712,7 @@
         <v>11088.485752000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45628</v>
       </c>
@@ -7271,7 +7732,7 @@
         <v>11124.038197</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45629</v>
       </c>
@@ -7291,7 +7752,7 @@
         <v>11043.376823000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45630</v>
       </c>
@@ -7311,7 +7772,7 @@
         <v>11081.339268</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45631</v>
       </c>
@@ -7331,7 +7792,7 @@
         <v>11070.196459000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45632</v>
       </c>
@@ -7351,7 +7812,7 @@
         <v>11007.408052999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45635</v>
       </c>
@@ -7371,7 +7832,7 @@
         <v>11007.408052999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45636</v>
       </c>
@@ -7391,7 +7852,7 @@
         <v>11076.335912</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45637</v>
       </c>
@@ -7411,7 +7872,7 @@
         <v>11234.641379000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45638</v>
       </c>
@@ -7431,7 +7892,7 @@
         <v>11158.619379</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45639</v>
       </c>
@@ -7451,7 +7912,7 @@
         <v>11002.684442</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45642</v>
       </c>
@@ -7471,7 +7932,7 @@
         <v>10803.550020999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45643</v>
       </c>
@@ -7491,7 +7952,7 @@
         <v>10718.697704</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45644</v>
       </c>
@@ -7511,7 +7972,7 @@
         <v>10718.697704</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45645</v>
       </c>
@@ -7531,7 +7992,7 @@
         <v>10722.122278000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45646</v>
       </c>
@@ -7551,7 +8012,7 @@
         <v>10818.542012</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45649</v>
       </c>
@@ -7571,7 +8032,7 @@
         <v>10786.228848000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45650</v>
       </c>
@@ -7591,7 +8052,7 @@
         <v>10792.639749</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45652</v>
       </c>
@@ -7611,7 +8072,7 @@
         <v>10766.524673</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45653</v>
       </c>
@@ -7631,7 +8092,7 @@
         <v>10676.426094</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45656</v>
       </c>
@@ -7651,7 +8112,7 @@
         <v>10597.68447</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45657</v>
       </c>
@@ -7671,7 +8132,7 @@
         <v>10603.594494999999</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45659</v>
       </c>
@@ -7691,7 +8152,7 @@
         <v>10643.805367999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45660</v>
       </c>
@@ -7711,7 +8172,7 @@
         <v>10658.576499999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45663</v>
       </c>
@@ -7731,7 +8192,7 @@
         <v>10710.955532</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45664</v>
       </c>
@@ -7751,7 +8212,7 @@
         <v>10699.747600999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45665</v>
       </c>
@@ -7771,7 +8232,7 @@
         <v>10711.934073</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45666</v>
       </c>
@@ -7791,7 +8252,7 @@
         <v>10718.404125999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45667</v>
       </c>
@@ -7811,7 +8272,7 @@
         <v>10675.627274</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45670</v>
       </c>
@@ -7831,7 +8292,7 @@
         <v>10634.206531</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45671</v>
       </c>
@@ -7851,7 +8312,7 @@
         <v>10676.261273</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45672</v>
       </c>
@@ -7871,7 +8332,7 @@
         <v>10676.261273</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45673</v>
       </c>
@@ -7891,7 +8352,7 @@
         <v>10675.210026999999</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45674</v>
       </c>
@@ -7911,7 +8372,7 @@
         <v>10607.372679</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45677</v>
       </c>
@@ -7931,7 +8392,7 @@
         <v>10570.048191</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45678</v>
       </c>
@@ -7951,7 +8412,7 @@
         <v>10515.188211999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45679</v>
       </c>
@@ -7971,7 +8432,7 @@
         <v>10534.429247</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45680</v>
       </c>
@@ -7991,7 +8452,7 @@
         <v>10501.702534</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45681</v>
       </c>
@@ -8011,7 +8472,7 @@
         <v>10525.188989</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45684</v>
       </c>
@@ -8031,7 +8492,7 @@
         <v>10528.001413</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45685</v>
       </c>
@@ -8051,7 +8512,7 @@
         <v>10530.395587000001</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45686</v>
       </c>
@@ -8071,7 +8532,7 @@
         <v>10522.170726</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45687</v>
       </c>
@@ -8091,7 +8552,7 @@
         <v>10680.496370999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45688</v>
       </c>
@@ -8111,7 +8572,7 @@
         <v>10649.638467999999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45691</v>
       </c>
@@ -8131,7 +8592,7 @@
         <v>10693.813815</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45692</v>
       </c>
@@ -8151,7 +8612,7 @@
         <v>10681.935701</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45693</v>
       </c>
@@ -8171,7 +8632,7 @@
         <v>10629.135528000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45694</v>
       </c>
@@ -8191,7 +8652,7 @@
         <v>10664.226579</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45695</v>
       </c>
@@ -8211,7 +8672,7 @@
         <v>10648.420232</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45698</v>
       </c>
@@ -8231,7 +8692,7 @@
         <v>10648.420232</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45699</v>
       </c>
@@ -8251,7 +8712,7 @@
         <v>10686.253244</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45700</v>
       </c>
@@ -8271,7 +8732,7 @@
         <v>10687.165011999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45701</v>
       </c>
@@ -8291,7 +8752,7 @@
         <v>10687.165011999999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45702</v>
       </c>
@@ -8311,7 +8772,7 @@
         <v>10827.678162</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45705</v>
       </c>
@@ -8331,7 +8792,7 @@
         <v>10882.034589999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45706</v>
       </c>
@@ -8351,7 +8812,7 @@
         <v>10872.440975</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45707</v>
       </c>
@@ -8371,7 +8832,7 @@
         <v>10847.538070000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45708</v>
       </c>
@@ -8391,7 +8852,7 @@
         <v>10847.538070000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45709</v>
       </c>
@@ -8411,7 +8872,7 @@
         <v>10883.646675</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45712</v>
       </c>
@@ -8431,7 +8892,7 @@
         <v>10883.646675</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45713</v>
       </c>
@@ -8451,7 +8912,7 @@
         <v>10838.622155999999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45714</v>
       </c>
@@ -8471,7 +8932,7 @@
         <v>10775.718602999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45715</v>
       </c>
@@ -8491,7 +8952,7 @@
         <v>10719.634187</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45716</v>
       </c>
@@ -8511,7 +8972,7 @@
         <v>10693.115322</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45721</v>
       </c>
@@ -8531,7 +8992,7 @@
         <v>10786.539397</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45722</v>
       </c>
@@ -8551,7 +9012,7 @@
         <v>10787.463927999999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45723</v>
       </c>
@@ -8571,7 +9032,7 @@
         <v>10822.231807</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45726</v>
       </c>
@@ -8591,7 +9052,7 @@
         <v>10828.342773</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45727</v>
       </c>
@@ -8611,7 +9072,7 @@
         <v>10885.508752</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45728</v>
       </c>
@@ -8631,7 +9092,7 @@
         <v>10885.508752</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45729</v>
       </c>
@@ -8651,7 +9112,7 @@
         <v>10910.789191</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45730</v>
       </c>
@@ -8671,7 +9132,7 @@
         <v>10890.779734</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45733</v>
       </c>
@@ -8691,7 +9152,7 @@
         <v>10895.863558999999</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45734</v>
       </c>
@@ -8711,7 +9172,7 @@
         <v>10945.912866999999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45735</v>
       </c>
@@ -8731,7 +9192,7 @@
         <v>10996.83576</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45736</v>
       </c>
@@ -8751,7 +9212,7 @@
         <v>10937.456523999999</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45737</v>
       </c>
@@ -8771,7 +9232,7 @@
         <v>10963.010233000001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45740</v>
       </c>
@@ -8791,7 +9252,7 @@
         <v>10924.551122000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45741</v>
       </c>
@@ -8811,7 +9272,7 @@
         <v>10937.677298000001</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45742</v>
       </c>
@@ -8831,7 +9292,7 @@
         <v>10933.843564000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45743</v>
       </c>
@@ -8851,7 +9312,7 @@
         <v>10946.063774</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45744</v>
       </c>
@@ -8871,7 +9332,7 @@
         <v>10951.012783</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45747</v>
       </c>
@@ -8891,7 +9352,7 @@
         <v>10995.855501</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45748</v>
       </c>
@@ -8911,7 +9372,7 @@
         <v>10975.137001999999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45749</v>
       </c>
@@ -8931,7 +9392,7 @@
         <v>10971.141105000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45750</v>
       </c>
@@ -8951,7 +9412,7 @@
         <v>11119.069708000001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45751</v>
       </c>
@@ -8971,7 +9432,7 @@
         <v>11134.652222000001</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45754</v>
       </c>
@@ -8991,7 +9452,7 @@
         <v>11134.652222000001</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45755</v>
       </c>
@@ -9011,7 +9472,7 @@
         <v>11047.644947999999</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45756</v>
       </c>
@@ -9031,7 +9492,7 @@
         <v>11023.695645</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45757</v>
       </c>
@@ -9051,7 +9512,7 @@
         <v>10966.036646</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45758</v>
       </c>
@@ -9071,7 +9532,7 @@
         <v>11069.909092</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45761</v>
       </c>
@@ -9091,7 +9552,7 @@
         <v>11121.819232</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45762</v>
       </c>
@@ -9111,7 +9572,7 @@
         <v>11086.602842</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45763</v>
       </c>
@@ -9131,7 +9592,7 @@
         <v>11081.212522</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45764</v>
       </c>
@@ -9151,7 +9612,7 @@
         <v>11086.642276</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45769</v>
       </c>
@@ -9171,7 +9632,7 @@
         <v>10993.02886</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45770</v>
       </c>
@@ -9191,7 +9652,7 @@
         <v>11042.011238999999</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45771</v>
       </c>
@@ -9211,7 +9672,7 @@
         <v>11132.298994000001</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45772</v>
       </c>
@@ -9231,7 +9692,7 @@
         <v>11163.907663</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45775</v>
       </c>
@@ -9251,7 +9712,7 @@
         <v>11191.518932000001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45776</v>
       </c>
@@ -9271,7 +9732,7 @@
         <v>11215.927358000001</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45777</v>
       </c>
@@ -9291,7 +9752,7 @@
         <v>11252.529156000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45779</v>
       </c>
@@ -9311,7 +9772,7 @@
         <v>11252.529156000001</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45782</v>
       </c>
@@ -9331,7 +9792,7 @@
         <v>11219.750203</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45783</v>
       </c>
@@ -9351,7 +9812,7 @@
         <v>11299.043441</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45784</v>
       </c>
@@ -9371,7 +9832,7 @@
         <v>11346.575178999999</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45785</v>
       </c>
@@ -9391,7 +9852,7 @@
         <v>11440.00635</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45786</v>
       </c>
@@ -9411,7 +9872,7 @@
         <v>11482.242896</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45789</v>
       </c>
@@ -9431,7 +9892,7 @@
         <v>11471.766915</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45790</v>
       </c>
@@ -9451,7 +9912,7 @@
         <v>11487.750916000001</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45791</v>
       </c>
@@ -9471,7 +9932,7 @@
         <v>11438.394816</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45792</v>
       </c>
@@ -9491,7 +9952,7 @@
         <v>11438.394816</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45793</v>
       </c>
@@ -9511,7 +9972,7 @@
         <v>11501.763355999999</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45796</v>
       </c>
@@ -9531,7 +9992,7 @@
         <v>11554.245873</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45797</v>
       </c>
@@ -9551,7 +10012,7 @@
         <v>11524.836576</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45798</v>
       </c>
@@ -9571,7 +10032,7 @@
         <v>11481.637656999999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45799</v>
       </c>
@@ -9591,7 +10052,7 @@
         <v>11525.702278999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45800</v>
       </c>
@@ -9611,7 +10072,7 @@
         <v>11538.097507</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45803</v>
       </c>
@@ -9631,7 +10092,7 @@
         <v>11553.315006000001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45804</v>
       </c>
@@ -9651,7 +10112,7 @@
         <v>11611.387575000001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45805</v>
       </c>
@@ -9671,7 +10132,7 @@
         <v>11573.975656000001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45806</v>
       </c>
@@ -9691,7 +10152,7 @@
         <v>11572.549281</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45807</v>
       </c>
@@ -9711,7 +10172,7 @@
         <v>11572.549281</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45810</v>
       </c>
@@ -9731,7 +10192,7 @@
         <v>11501.188667</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45811</v>
       </c>
@@ -9751,7 +10212,7 @@
         <v>11504.147005999999</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45812</v>
       </c>
@@ -9771,7 +10232,7 @@
         <v>11534.495883</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45813</v>
       </c>
@@ -9791,7 +10252,7 @@
         <v>11523.003987</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45814</v>
       </c>
@@ -9811,7 +10272,7 @@
         <v>11523.003987</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45817</v>
       </c>
@@ -9831,7 +10292,7 @@
         <v>11510.735371000001</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45818</v>
       </c>
@@ -9851,7 +10312,7 @@
         <v>11469.204188</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45819</v>
       </c>
@@ -9871,7 +10332,7 @@
         <v>11501.108989</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45820</v>
       </c>
@@ -9891,7 +10352,7 @@
         <v>11495.994081000001</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45821</v>
       </c>
@@ -9911,7 +10372,7 @@
         <v>11517.511026</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45824</v>
       </c>
@@ -9931,7 +10392,7 @@
         <v>11539.224668000001</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45825</v>
       </c>
@@ -9951,7 +10412,7 @@
         <v>11553.187776000001</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45826</v>
       </c>
@@ -9971,7 +10432,7 @@
         <v>11581.369804</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45828</v>
       </c>
@@ -9991,7 +10452,7 @@
         <v>11645.022854000001</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45831</v>
       </c>
@@ -10011,7 +10472,7 @@
         <v>11625.925598</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45832</v>
       </c>
@@ -10031,7 +10492,7 @@
         <v>11595.74804</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45833</v>
       </c>
@@ -10051,7 +10512,7 @@
         <v>11581.971783999999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45834</v>
       </c>
@@ -10071,7 +10532,7 @@
         <v>11618.728372</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45835</v>
       </c>
@@ -10091,7 +10552,7 @@
         <v>11650.596162</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45838</v>
       </c>
@@ -10111,32 +10572,465 @@
         <v>11742.771423</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B188">
+        <v>1.07007652</v>
+      </c>
+      <c r="C188" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D188">
+        <v>5.4511000000000003</v>
+      </c>
+      <c r="E188" s="3">
+        <v>139549</v>
+      </c>
+      <c r="F188">
+        <v>11760.125684000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B189">
+        <v>1.05616519</v>
+      </c>
+      <c r="C189" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D189">
+        <v>5.4512</v>
+      </c>
+      <c r="E189" s="3">
+        <v>139050</v>
+      </c>
+      <c r="F189">
+        <v>11738.976639</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B190">
+        <v>1.0652204700000001</v>
+      </c>
+      <c r="C190" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D190">
+        <v>5.4207999999999998</v>
+      </c>
+      <c r="E190" s="3">
+        <v>140927</v>
+      </c>
+      <c r="F190">
+        <v>11743.877037</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B191">
+        <v>1.06875502</v>
+      </c>
+      <c r="C191" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D191">
+        <v>5.4089999999999998</v>
+      </c>
+      <c r="E191" s="3">
+        <v>141263</v>
+      </c>
+      <c r="F191">
+        <v>11737.581273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B192">
+        <v>1.0620925400000001</v>
+      </c>
+      <c r="C192" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D192">
+        <v>5.4551999999999996</v>
+      </c>
+      <c r="E192" s="3">
+        <v>139489</v>
+      </c>
+      <c r="F192">
+        <v>11698.733249000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B193">
+        <v>1.05827961</v>
+      </c>
+      <c r="C193" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D193">
+        <v>5.4570999999999996</v>
+      </c>
+      <c r="E193" s="3">
+        <v>139302</v>
+      </c>
+      <c r="F193">
+        <v>11652.332112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B194">
+        <v>1.05184005</v>
+      </c>
+      <c r="C194" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D194">
+        <v>5.4626000000000001</v>
+      </c>
+      <c r="E194" s="3">
+        <v>137480</v>
+      </c>
+      <c r="F194">
+        <v>11617.707809</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B195">
+        <v>1.0444938800000001</v>
+      </c>
+      <c r="C195" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D195">
+        <v>5.5433000000000003</v>
+      </c>
+      <c r="E195" s="3">
+        <v>136743</v>
+      </c>
+      <c r="F195">
+        <v>11611.020655</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B196">
+        <v>1.0377358000000001</v>
+      </c>
+      <c r="C196" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D196">
+        <v>5.5721999999999996</v>
+      </c>
+      <c r="E196" s="3">
+        <v>136187</v>
+      </c>
+      <c r="F196">
+        <v>11656.098128</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B197">
+        <v>1.03475468</v>
+      </c>
+      <c r="C197" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D197">
+        <v>5.5594999999999999</v>
+      </c>
+      <c r="E197" s="3">
+        <v>135298</v>
+      </c>
+      <c r="F197">
+        <v>11629.233174999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B198">
+        <v>1.03773446</v>
+      </c>
+      <c r="C198" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D198">
+        <v>5.5575999999999999</v>
+      </c>
+      <c r="E198" s="3">
+        <v>135250</v>
+      </c>
+      <c r="F198">
+        <v>11564.396108999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B199">
+        <v>1.03737094</v>
+      </c>
+      <c r="C199" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D199">
+        <v>5.5721999999999996</v>
+      </c>
+      <c r="E199" s="3">
+        <v>135510</v>
+      </c>
+      <c r="F199">
+        <v>11508.698645</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B200">
+        <v>1.03908245</v>
+      </c>
+      <c r="C200" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D200">
+        <v>5.5736999999999997</v>
+      </c>
+      <c r="E200" s="3">
+        <v>135564</v>
+      </c>
+      <c r="F200">
+        <v>11544.074012999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B201">
+        <v>1.02007658</v>
+      </c>
+      <c r="C201" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D201">
+        <v>5.5465999999999998</v>
+      </c>
+      <c r="E201" s="3">
+        <v>133381</v>
+      </c>
+      <c r="F201">
+        <v>11516.525738</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B202">
+        <v>1.0193308299999999</v>
+      </c>
+      <c r="C202" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D202">
+        <v>5.5625</v>
+      </c>
+      <c r="E202" s="3">
+        <v>134166</v>
+      </c>
+      <c r="F202">
+        <v>11512.782471</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B203">
+        <v>1.0160145599999999</v>
+      </c>
+      <c r="C203" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D203">
+        <v>5.5709</v>
+      </c>
+      <c r="E203" s="3">
+        <v>134035</v>
+      </c>
+      <c r="F203">
+        <v>11509.169782999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B204">
+        <v>1.02589844</v>
+      </c>
+      <c r="C204" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D204">
+        <v>5.5537000000000001</v>
+      </c>
+      <c r="E204" s="3">
+        <v>135368</v>
+      </c>
+      <c r="F204">
+        <v>11530.936863000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B205">
+        <v>1.0173073800000001</v>
+      </c>
+      <c r="C205" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D205">
+        <v>5.5239000000000003</v>
+      </c>
+      <c r="E205" s="3">
+        <v>133807</v>
+      </c>
+      <c r="F205">
+        <v>11541.367375</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B206">
+        <v>1.0172218099999999</v>
+      </c>
+      <c r="C206" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D206">
+        <v>5.5426000000000002</v>
+      </c>
+      <c r="E206" s="3">
+        <v>133524</v>
+      </c>
+      <c r="F206">
+        <v>11516.758167</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B207">
+        <v>1.0076495700000001</v>
+      </c>
+      <c r="C207" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D207">
+        <v>5.5876999999999999</v>
+      </c>
+      <c r="E207" s="3">
+        <v>132129</v>
+      </c>
+      <c r="F207">
+        <v>11521.754534</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B208">
+        <v>1.0105383400000001</v>
+      </c>
+      <c r="C208" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D208">
+        <v>5.5763999999999996</v>
+      </c>
+      <c r="E208" s="3">
+        <v>132725</v>
+      </c>
+      <c r="F208">
+        <v>11572.115229000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B209">
+        <v>1.01537174488022</v>
+      </c>
+      <c r="C209" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D209">
+        <v>5.6033999999999997</v>
+      </c>
+      <c r="E209" s="3">
+        <v>133989</v>
+      </c>
+      <c r="F209">
+        <v>11579.413925999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B210">
+        <v>1.00905714799881</v>
+      </c>
+      <c r="C210" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D210">
+        <v>5.6021000000000001</v>
+      </c>
+      <c r="E210" s="3">
+        <v>133071</v>
+      </c>
+      <c r="F210">
+        <v>11564.795442000001</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{69B25821-3913-4441-A46B-D72EC7900227}"/>
@@ -10146,18 +11040,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306A59AC-B162-462F-9921-512153E3D23A}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10168,7 +11063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45607</v>
       </c>
@@ -10179,7 +11074,7 @@
         <v>1.9161058900000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45608</v>
       </c>
@@ -10190,7 +11085,7 @@
         <v>1.9171931799999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45609</v>
       </c>
@@ -10201,7 +11096,7 @@
         <v>1.91835449</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45610</v>
       </c>
@@ -10212,7 +11107,7 @@
         <v>1.9192752</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45614</v>
       </c>
@@ -10223,7 +11118,7 @@
         <v>1.92049184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45615</v>
       </c>
@@ -10234,7 +11129,7 @@
         <v>1.91876274</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45617</v>
       </c>
@@ -10245,7 +11140,7 @@
         <v>1.9199784900000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45618</v>
       </c>
@@ -10256,7 +11151,7 @@
         <v>1.9208061400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45621</v>
       </c>
@@ -10267,7 +11162,7 @@
         <v>1.92207276</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45622</v>
       </c>
@@ -10278,7 +11173,7 @@
         <v>1.9232242900000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45623</v>
       </c>
@@ -10289,7 +11184,7 @@
         <v>1.9232814</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45624</v>
       </c>
@@ -10300,7 +11195,7 @@
         <v>1.9237175099999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45625</v>
       </c>
@@ -10311,7 +11206,7 @@
         <v>1.9246425599999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45628</v>
       </c>
@@ -10322,7 +11217,7 @@
         <v>1.9249409</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45629</v>
       </c>
@@ -10333,7 +11228,7 @@
         <v>1.92535934</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45630</v>
       </c>
@@ -10344,7 +11239,7 @@
         <v>1.9267377400000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45631</v>
       </c>
@@ -10355,7 +11250,7 @@
         <v>1.92765684</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45632</v>
       </c>
@@ -10366,7 +11261,7 @@
         <v>1.9278247500000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45635</v>
       </c>
@@ -10377,7 +11272,7 @@
         <v>1.9257181400000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45636</v>
       </c>
@@ -10388,7 +11283,7 @@
         <v>1.92639256</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45637</v>
       </c>
@@ -10399,7 +11294,7 @@
         <v>1.9271649099999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45638</v>
       </c>
@@ -10410,7 +11305,7 @@
         <v>1.92805742</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45639</v>
       </c>
@@ -10421,7 +11316,7 @@
         <v>1.928661</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45642</v>
       </c>
@@ -10432,7 +11327,7 @@
         <v>1.9291670599999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45643</v>
       </c>
@@ -10443,7 +11338,7 @@
         <v>1.92834309</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45644</v>
       </c>
@@ -10454,7 +11349,7 @@
         <v>1.9286728500000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45645</v>
       </c>
@@ -10465,7 +11360,7 @@
         <v>1.9226604199999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45646</v>
       </c>
@@ -10476,7 +11371,7 @@
         <v>1.91545012</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45649</v>
       </c>
@@ -10487,7 +11382,7 @@
         <v>1.91337026</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45650</v>
       </c>
@@ -10498,7 +11393,7 @@
         <v>1.9144326300000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45652</v>
       </c>
@@ -10509,7 +11404,7 @@
         <v>1.9129051800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45653</v>
       </c>
@@ -10520,7 +11415,7 @@
         <v>1.91444258</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45656</v>
       </c>
@@ -10531,7 +11426,7 @@
         <v>1.9155385599999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45657</v>
       </c>
@@ -10542,7 +11437,7 @@
         <v>1.9166057700000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45659</v>
       </c>
@@ -10553,7 +11448,7 @@
         <v>1.91789948</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45660</v>
       </c>
@@ -10564,7 +11459,7 @@
         <v>1.91957394</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45663</v>
       </c>
@@ -10575,7 +11470,7 @@
         <v>1.92150037</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45664</v>
       </c>
@@ -10586,7 +11481,7 @@
         <v>1.9235695399999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45665</v>
       </c>
@@ -10597,7 +11492,7 @@
         <v>1.92500822</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45666</v>
       </c>
@@ -10608,7 +11503,7 @@
         <v>1.9270570600000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45667</v>
       </c>
@@ -10619,7 +11514,7 @@
         <v>1.92871375</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45670</v>
       </c>
@@ -10630,7 +11525,7 @@
         <v>1.9295742199999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45671</v>
       </c>
@@ -10641,7 +11536,7 @@
         <v>1.9313796599999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45672</v>
       </c>
@@ -10652,7 +11547,7 @@
         <v>1.9328569900000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45673</v>
       </c>
@@ -10663,7 +11558,7 @@
         <v>1.93469387</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45674</v>
       </c>
@@ -10674,7 +11569,7 @@
         <v>1.9332840200000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45677</v>
       </c>
@@ -10685,7 +11580,7 @@
         <v>1.9375555799999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45678</v>
       </c>
@@ -10696,7 +11591,7 @@
         <v>1.9392197200000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45679</v>
       </c>
@@ -10707,7 +11602,7 @@
         <v>1.9407017</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45680</v>
       </c>
@@ -10718,7 +11613,7 @@
         <v>1.9426515200000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45681</v>
       </c>
@@ -10729,7 +11624,7 @@
         <v>1.943932</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45684</v>
       </c>
@@ -10740,7 +11635,7 @@
         <v>1.9453729500000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45685</v>
       </c>
@@ -10751,7 +11646,7 @@
         <v>1.9471260500000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45686</v>
       </c>
@@ -10762,7 +11657,7 @@
         <v>1.9483660700000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45687</v>
       </c>
@@ -10773,7 +11668,7 @@
         <v>1.9494926400000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45688</v>
       </c>
@@ -10784,7 +11679,7 @@
         <v>1.9509204600000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45691</v>
       </c>
@@ -10795,7 +11690,7 @@
         <v>1.9513699799999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45692</v>
       </c>
@@ -10806,7 +11701,7 @@
         <v>1.9531360099999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45693</v>
       </c>
@@ -10817,7 +11712,7 @@
         <v>1.9549186599999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45694</v>
       </c>
@@ -10828,7 +11723,7 @@
         <v>1.95632366</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45695</v>
       </c>
@@ -10839,7 +11734,7 @@
         <v>1.95753613</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45698</v>
       </c>
@@ -10850,7 +11745,7 @@
         <v>1.9589414700000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45699</v>
       </c>
@@ -10861,7 +11756,7 @@
         <v>1.9604092799999999</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45700</v>
       </c>
@@ -10872,7 +11767,7 @@
         <v>1.961508</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45701</v>
       </c>
@@ -10883,7 +11778,7 @@
         <v>1.96238618</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45702</v>
       </c>
@@ -10894,7 +11789,7 @@
         <v>1.9621809699999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45705</v>
       </c>
@@ -10905,7 +11800,7 @@
         <v>1.96520513</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45706</v>
       </c>
@@ -10916,7 +11811,7 @@
         <v>1.96705938</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45707</v>
       </c>
@@ -10927,7 +11822,7 @@
         <v>1.9682884899999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45708</v>
       </c>
@@ -10938,7 +11833,7 @@
         <v>1.96960387</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45709</v>
       </c>
@@ -10949,7 +11844,7 @@
         <v>1.9714797500000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45712</v>
       </c>
@@ -10960,7 +11855,7 @@
         <v>1.97228498</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45713</v>
       </c>
@@ -10971,7 +11866,7 @@
         <v>1.97490605</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45714</v>
       </c>
@@ -10982,7 +11877,7 @@
         <v>1.9760111899999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45715</v>
       </c>
@@ -10993,7 +11888,7 @@
         <v>1.97743315</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45716</v>
       </c>
@@ -11004,7 +11899,7 @@
         <v>1.97867711</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45721</v>
       </c>
@@ -11015,7 +11910,7 @@
         <v>1.9797851099999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45722</v>
       </c>
@@ -11026,7 +11921,7 @@
         <v>1.9806912299999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45723</v>
       </c>
@@ -11037,7 +11932,7 @@
         <v>1.98177417</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45726</v>
       </c>
@@ -11048,7 +11943,7 @@
         <v>1.98363497</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45727</v>
       </c>
@@ -11059,7 +11954,7 @@
         <v>1.9856005999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45728</v>
       </c>
@@ -11070,7 +11965,7 @@
         <v>1.98732599</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45729</v>
       </c>
@@ -11081,7 +11976,7 @@
         <v>1.9886003800000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45730</v>
       </c>
@@ -11092,7 +11987,7 @@
         <v>1.98842184</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45733</v>
       </c>
@@ -11103,7 +11998,7 @@
         <v>1.9910797099999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45734</v>
       </c>
@@ -11114,7 +12009,7 @@
         <v>1.99252918</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45735</v>
       </c>
@@ -11125,7 +12020,7 @@
         <v>1.99393468</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45736</v>
       </c>
@@ -11136,7 +12031,7 @@
         <v>1.99519618</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45737</v>
       </c>
@@ -11147,7 +12042,7 @@
         <v>1.9967566000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45740</v>
       </c>
@@ -11158,7 +12053,7 @@
         <v>1.99821972</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45741</v>
       </c>
@@ -11169,7 +12064,7 @@
         <v>1.99954685</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45742</v>
       </c>
@@ -11180,7 +12075,7 @@
         <v>2.0012640899999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45743</v>
       </c>
@@ -11191,7 +12086,7 @@
         <v>2.00276225</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45744</v>
       </c>
@@ -11202,7 +12097,7 @@
         <v>2.0028859300000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45747</v>
       </c>
@@ -11213,7 +12108,7 @@
         <v>2.0051629599999998</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45748</v>
       </c>
@@ -11224,7 +12119,7 @@
         <v>2.00604907</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45749</v>
       </c>
@@ -11235,7 +12130,7 @@
         <v>2.0075891600000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45750</v>
       </c>
@@ -11246,7 +12141,7 @@
         <v>2.0087886400000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45751</v>
       </c>
@@ -11257,7 +12152,7 @@
         <v>2.0101383899999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45754</v>
       </c>
@@ -11268,7 +12163,7 @@
         <v>2.01108902</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45755</v>
       </c>
@@ -11279,7 +12174,7 @@
         <v>2.0123264000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45756</v>
       </c>
@@ -11290,7 +12185,7 @@
         <v>2.0133698099999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45757</v>
       </c>
@@ -11301,7 +12196,7 @@
         <v>2.01470036</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45758</v>
       </c>
@@ -11312,7 +12207,7 @@
         <v>2.0158992499999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45761</v>
       </c>
@@ -11323,7 +12218,7 @@
         <v>2.0169203200000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45762</v>
       </c>
@@ -11334,7 +12229,7 @@
         <v>2.01805396</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45763</v>
       </c>
@@ -11345,7 +12240,7 @@
         <v>2.0198836999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45764</v>
       </c>
@@ -11356,7 +12251,7 @@
         <v>2.0208290199999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45769</v>
       </c>
@@ -11367,7 +12262,7 @@
         <v>2.0220911500000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45770</v>
       </c>
@@ -11378,7 +12273,7 @@
         <v>2.0229720100000002</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45771</v>
       </c>
@@ -11389,7 +12284,7 @@
         <v>2.02427555</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45772</v>
       </c>
@@ -11400,7 +12295,7 @@
         <v>2.0255509900000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45775</v>
       </c>
@@ -11411,7 +12306,7 @@
         <v>2.0266418700000002</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45776</v>
       </c>
@@ -11422,7 +12317,7 @@
         <v>2.0279498199999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45777</v>
       </c>
@@ -11433,7 +12328,7 @@
         <v>2.02924463</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45779</v>
       </c>
@@ -11444,7 +12339,7 @@
         <v>2.03047333</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45782</v>
       </c>
@@ -11455,7 +12350,7 @@
         <v>2.0312816300000001</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45783</v>
       </c>
@@ -11466,7 +12361,7 @@
         <v>2.0327200200000002</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45784</v>
       </c>
@@ -11477,7 +12372,7 @@
         <v>2.0338312799999998</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45785</v>
       </c>
@@ -11488,7 +12383,7 @@
         <v>2.03567739</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45786</v>
       </c>
@@ -11499,7 +12394,7 @@
         <v>2.0371075300000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45789</v>
       </c>
@@ -11510,7 +12405,7 @@
         <v>2.03871819</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45790</v>
       </c>
@@ -11521,7 +12416,7 @@
         <v>2.0402025300000002</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45791</v>
       </c>
@@ -11532,7 +12427,7 @@
         <v>2.0416104000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45792</v>
       </c>
@@ -11543,7 +12438,7 @@
         <v>2.0431068200000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45793</v>
       </c>
@@ -11554,7 +12449,7 @@
         <v>2.04433921</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45796</v>
       </c>
@@ -11565,7 +12460,7 @@
         <v>2.0457556600000002</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45797</v>
       </c>
@@ -11576,7 +12471,7 @@
         <v>2.04711949</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45798</v>
       </c>
@@ -11587,7 +12482,7 @@
         <v>2.0492750399999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45799</v>
       </c>
@@ -11598,7 +12493,7 @@
         <v>2.050478</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45800</v>
       </c>
@@ -11609,7 +12504,7 @@
         <v>2.0509846</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45803</v>
       </c>
@@ -11620,7 +12515,7 @@
         <v>2.0541328499999998</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45804</v>
       </c>
@@ -11631,7 +12526,7 @@
         <v>2.0552140799999998</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45805</v>
       </c>
@@ -11642,7 +12537,7 @@
         <v>2.0567490199999998</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45806</v>
       </c>
@@ -11653,7 +12548,7 @@
         <v>2.0579547900000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45807</v>
       </c>
@@ -11664,7 +12559,7 @@
         <v>2.0588318999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45810</v>
       </c>
@@ -11675,7 +12570,7 @@
         <v>2.05808474</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45811</v>
       </c>
@@ -11686,7 +12581,7 @@
         <v>2.0596229099999999</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45812</v>
       </c>
@@ -11697,7 +12592,7 @@
         <v>2.060622</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45813</v>
       </c>
@@ -11708,7 +12603,7 @@
         <v>2.0616254999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45814</v>
       </c>
@@ -11719,7 +12614,7 @@
         <v>2.0659419699999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45817</v>
       </c>
@@ -11730,7 +12625,7 @@
         <v>2.0670256999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45818</v>
       </c>
@@ -11741,7 +12636,7 @@
         <v>2.06878567</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45819</v>
       </c>
@@ -11752,7 +12647,7 @@
         <v>2.0702841699999999</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45820</v>
       </c>
@@ -11763,7 +12658,7 @@
         <v>2.0716654800000001</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45821</v>
       </c>
@@ -11774,7 +12669,7 @@
         <v>2.07292918</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45824</v>
       </c>
@@ -11785,7 +12680,7 @@
         <v>2.0742262500000002</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45825</v>
       </c>
@@ -11796,7 +12691,7 @@
         <v>2.0726992800000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45826</v>
       </c>
@@ -11807,7 +12702,7 @@
         <v>2.0739326500000002</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45828</v>
       </c>
@@ -11818,7 +12713,7 @@
         <v>2.0749435799999998</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45831</v>
       </c>
@@ -11829,7 +12724,7 @@
         <v>2.0778183299999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45832</v>
       </c>
@@ -11840,7 +12735,7 @@
         <v>2.0791255</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45833</v>
       </c>
@@ -11851,7 +12746,7 @@
         <v>2.0814352999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45834</v>
       </c>
@@ -11862,7 +12757,7 @@
         <v>2.0826239499999999</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45835</v>
       </c>
@@ -11873,7 +12768,7 @@
         <v>2.0844693200000002</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45838</v>
       </c>
@@ -11882,6 +12777,259 @@
       </c>
       <c r="C157">
         <v>2.0855372499999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B158">
+        <v>1.0913023799999999</v>
+      </c>
+      <c r="C158">
+        <v>2.0870939000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B159">
+        <v>1.0917699300000001</v>
+      </c>
+      <c r="C159">
+        <v>2.0880412000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B160">
+        <v>1.0925254799999999</v>
+      </c>
+      <c r="C160">
+        <v>2.0888674200000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B161">
+        <v>1.0933854999999999</v>
+      </c>
+      <c r="C161">
+        <v>2.0905611999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B162">
+        <v>1.0944223099999999</v>
+      </c>
+      <c r="C162">
+        <v>2.0913610999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B163">
+        <v>1.0953375299999999</v>
+      </c>
+      <c r="C163">
+        <v>2.0926918699999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B164">
+        <v>1.09607882</v>
+      </c>
+      <c r="C164">
+        <v>2.0937954099999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B165">
+        <v>1.0966594700000001</v>
+      </c>
+      <c r="C165">
+        <v>2.09503583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B166">
+        <v>1.0972913200000001</v>
+      </c>
+      <c r="C166">
+        <v>2.0962288999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B167">
+        <v>1.0979159199999999</v>
+      </c>
+      <c r="C167">
+        <v>2.0976922099999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B168">
+        <v>1.09867045</v>
+      </c>
+      <c r="C168">
+        <v>2.0987531100000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B169">
+        <v>1.09897354</v>
+      </c>
+      <c r="C169">
+        <v>2.1002183699999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B170">
+        <v>1.0996925900000001</v>
+      </c>
+      <c r="C170">
+        <v>2.1015783699999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B171">
+        <v>1.1003895699999999</v>
+      </c>
+      <c r="C171">
+        <v>2.10279032</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B172">
+        <v>1.10122487</v>
+      </c>
+      <c r="C172">
+        <v>2.10405234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B173">
+        <v>1.1019262299999999</v>
+      </c>
+      <c r="C173">
+        <v>2.10523215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B174">
+        <v>1.10281176</v>
+      </c>
+      <c r="C174">
+        <v>2.10673289</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B175">
+        <v>1.1033409599999999</v>
+      </c>
+      <c r="C175">
+        <v>2.1074036700000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B176">
+        <v>1.1040722000000001</v>
+      </c>
+      <c r="C176">
+        <v>2.10879292</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B177">
+        <v>1.1047714500000001</v>
+      </c>
+      <c r="C177">
+        <v>2.1112437900000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B178">
+        <v>1.10534979</v>
+      </c>
+      <c r="C178">
+        <v>2.1118920000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B179">
+        <v>1.10619044</v>
+      </c>
+      <c r="C179">
+        <v>2.1134360999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B180">
+        <v>1.10683424283608</v>
+      </c>
+      <c r="C180">
+        <v>2.1145352499999999</v>
       </c>
     </row>
   </sheetData>
@@ -11896,7 +13044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/data_perfil_mensal.xlsx
+++ b/data/data_perfil_mensal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82f3955c2e385cb8/Desktop/Desktop/My R Packages/perfil_mensal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E4F05A-A133-47AD-BDE1-29789A7B36CE}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{66E9FEB5-0676-43BA-86A9-35C572237AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822000F9-E1A9-4950-AB27-D5310D112EBB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{21FB473E-04F3-47BE-90E3-7A7B985E5A04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{21FB473E-04F3-47BE-90E3-7A7B985E5A04}"/>
   </bookViews>
   <sheets>
     <sheet name="reta_aloc" sheetId="1" r:id="rId1"/>
@@ -454,22 +454,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2BB35-ACDB-4899-AD4E-1A94E7C738C0}">
-  <dimension ref="A1:F317"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F295" sqref="F295:F317"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E318" sqref="E318:F338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45412</v>
       </c>
@@ -509,7 +509,7 @@
         <v>11096.938936</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45414</v>
       </c>
@@ -529,7 +529,7 @@
         <v>11140.805899000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45415</v>
       </c>
@@ -549,7 +549,7 @@
         <v>11189.930128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45418</v>
       </c>
@@ -569,7 +569,7 @@
         <v>11141.449685</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45419</v>
       </c>
@@ -589,7 +589,7 @@
         <v>11187.044328</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45420</v>
       </c>
@@ -609,7 +609,7 @@
         <v>11192.020366999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45421</v>
       </c>
@@ -629,7 +629,7 @@
         <v>11228.284643999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45422</v>
       </c>
@@ -649,7 +649,7 @@
         <v>11202.690544999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45425</v>
       </c>
@@ -669,7 +669,7 @@
         <v>11199.188434</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45426</v>
       </c>
@@ -689,7 +689,7 @@
         <v>11226.121918000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45427</v>
       </c>
@@ -709,7 +709,7 @@
         <v>11241.139521999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45428</v>
       </c>
@@ -729,7 +729,7 @@
         <v>11300.721777000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45429</v>
       </c>
@@ -749,7 +749,7 @@
         <v>11287.86492</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45432</v>
       </c>
@@ -769,7 +769,7 @@
         <v>11274.142426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45433</v>
       </c>
@@ -789,7 +789,7 @@
         <v>11277.197028000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45434</v>
       </c>
@@ -809,7 +809,7 @@
         <v>11255.380284000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45435</v>
       </c>
@@ -829,7 +829,7 @@
         <v>11285.582027</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45436</v>
       </c>
@@ -849,7 +849,7 @@
         <v>11274.249315999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45439</v>
       </c>
@@ -869,7 +869,7 @@
         <v>11255.636145</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45440</v>
       </c>
@@ -889,7 +889,7 @@
         <v>11267.403573</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45441</v>
       </c>
@@ -909,7 +909,7 @@
         <v>11232.909729000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45443</v>
       </c>
@@ -929,7 +929,7 @@
         <v>11273.777151</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45446</v>
       </c>
@@ -949,7 +949,7 @@
         <v>11267.321919</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45447</v>
       </c>
@@ -969,7 +969,7 @@
         <v>11239.636055000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45448</v>
       </c>
@@ -989,7 +989,7 @@
         <v>11207.748804000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45449</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>11241.164115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45450</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>11146.388665</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45453</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>11147.277776000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45454</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>11123.076816000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45455</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>11018.654197</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45456</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>11067.496566</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45457</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>11098.705883000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45460</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>11110.560384</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45461</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>11115.131189</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45462</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>11111.951881999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45463</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>11124.583661999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45464</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>11182.561242</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45467</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>11190.813894000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45468</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>11147.874027</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45469</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>11120.152392</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45470</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>11111.794146</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45471</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>11020.022715999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45474</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>10957.969476</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45475</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>10967.975601</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45476</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>11059.297742000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45477</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>11149.461246000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45478</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>11209.024702999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45481</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>11204.820904</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45482</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>11206.737294</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45483</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>11309.501711999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45484</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>11390.301588</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45485</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>11400.119355999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45488</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>11366.029649</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45489</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>11393.430059</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45490</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>11391.84496</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45491</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>11318.338346</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45492</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>11286.876624</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45495</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>11310.890437</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45496</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>11238.566523</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45497</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>11247.456565</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45498</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>11242.356899</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45499</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>11298.006347</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45502</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>11292.517723999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45503</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>11321.900959000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45504</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>11376.651153000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45505</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>11419.077249</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45506</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>11583.722064</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45509</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>11589.967578</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45510</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>11519.306847</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45511</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>11533.313227000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45512</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>11599.40518</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45513</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>11695.782969</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45516</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>11732.171716000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45517</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>11780.707107</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45518</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>11784.953157</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45519</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>11752.14014</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45520</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>11719.093147</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45523</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>11667.912122</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45524</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>11598.806481</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45525</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>11606.145097000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45526</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>11589.581654</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45527</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>11637.40468</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45530</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>11597.330690000001</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45531</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>11579.689688</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45532</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>11534.168736</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45533</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>11522.085944</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45534</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>11464.326182999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45537</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>11430.485386</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45538</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>11416.427901999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45539</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>11457.327305999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45540</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>11510.087536999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45541</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>11532.4007</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45544</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>11516.827655999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45545</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>11490.002323000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45546</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>11484.295255999999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45547</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>11417.413825</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45548</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>11454.571861</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45551</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>11414.758644</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45552</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>11418.153920999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45553</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>11425.202968</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45554</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>11339.342149</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45555</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>11269.864535999999</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45558</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>11284.130227</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45559</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>11335.767906999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45560</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>11349.256568000001</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45561</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>11345.941685</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45562</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>11342.370854000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45565</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>11301.111945000001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45566</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>11321.016347000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45567</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>11323.973563</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45568</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>11313.836579000001</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45569</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>11275.780406</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45572</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>11327.340199</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45573</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>11362.858698</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45574</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>11288.753414000001</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45575</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>11321.156239</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45576</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>11320.048672000001</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45579</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>11296.223859</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45580</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>11255.662695000001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45581</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>11215.074903000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45582</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>11202.495983000001</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45583</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>11141.423776</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45586</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>11127.671936000001</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45587</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>11123.966766</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45588</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>11077.007283999999</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45589</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>11180.5828</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45590</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>11132.24121</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45593</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>11102.380609</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45594</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>11072.925624</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45595</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>11096.071900999999</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45596</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>11113.630809</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>11062.223228999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45600</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>11177.618531</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45601</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>11189.85248</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45602</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>11206.252865</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45603</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>11278.553821</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45604</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>11316.76584</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45607</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>11295.418186999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45608</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>11140.150078999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45609</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>11149.394624</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45610</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>11172.765740999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45614</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>11192.533303</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45615</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>11239.825902</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45617</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>11292.741137999999</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45618</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>11237.37573</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45621</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>11263.320168</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45622</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>11254.338121000001</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45623</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>11133.033982000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45624</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>11057.010329000001</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45625</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>11088.485752000001</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45628</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>11124.038197</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45629</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>11043.376823000001</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45630</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>11081.339268</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45631</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>11070.196459000001</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45632</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>11007.408052999999</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>11007.408052999999</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45636</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>11076.335912</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45637</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>11234.641379000001</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45638</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>11158.619379</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45639</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>11002.684442</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45642</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>10803.550020999999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45643</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>10718.697704</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45644</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>10718.697704</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45645</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>10722.122278000001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45646</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>10818.542012</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45649</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>10786.228848000001</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45650</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>10792.639749</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45652</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>10766.524673</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45653</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>10676.426094</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45656</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>10597.68447</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45657</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>10603.594494999999</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45659</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>10643.805367999999</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45660</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>10658.576499999999</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45663</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>10710.955532</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45664</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>10699.747600999999</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45665</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>10711.934073</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45666</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>10718.404125999999</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45667</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>10675.627274</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45670</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>10634.206531</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45671</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>10676.261273</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45672</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>10676.261273</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45673</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>10675.210026999999</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45674</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>10607.372679</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45677</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>10570.048191</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45678</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>10515.188211999999</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45679</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>10534.429247</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45680</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>10501.702534</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45681</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>10525.188989</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45684</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>10528.001413</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45685</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>10530.395587000001</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45686</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>10522.170726</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45687</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>10680.496370999999</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45688</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>10649.638467999999</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45691</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>10693.813815</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45692</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>10681.935701</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45693</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>10629.135528000001</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45694</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>10664.226579</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45695</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>10648.420232</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45698</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>10648.420232</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45699</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>10686.253244</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45700</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>10687.165011999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45701</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>10687.165011999999</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45702</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>10827.678162</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45705</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>10882.034589999999</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45706</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>10872.440975</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45707</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>10847.538070000001</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45708</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>10847.538070000001</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45709</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>10883.646675</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45712</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>10883.646675</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45713</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>10838.622155999999</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45714</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>10775.718602999999</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45715</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>10719.634187</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45716</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>10693.115322</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45721</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>10786.539397</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45722</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>10787.463927999999</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45723</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>10822.231807</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45726</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>10828.342773</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45727</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>10885.508752</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45728</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>10885.508752</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45729</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>10910.789191</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45730</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>10890.779734</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45733</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>10895.863558999999</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45734</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>10945.912866999999</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45735</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>10996.83576</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45736</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>10937.456523999999</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45737</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>10963.010233000001</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45740</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>10924.551122000001</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45741</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>10937.677298000001</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45742</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>10933.843564000001</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45743</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>10946.063774</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45744</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>10951.012783</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45747</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>10995.855501</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45748</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>10975.137001999999</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45749</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>10971.141105000001</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45750</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>11119.069708000001</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45751</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>11134.652222000001</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45754</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>11134.652222000001</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45755</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>11047.644947999999</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45756</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>11023.695645</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45757</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>10966.036646</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45758</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>11069.909092</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45761</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>11121.819232</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45762</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>11086.602842</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45763</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>11081.212522</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45764</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>11086.642276</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45769</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>10993.02886</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45770</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>11042.011238999999</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45771</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>11132.298994000001</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45772</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>11163.907663</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45775</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>11191.518932000001</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45776</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>11215.927358000001</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45777</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>11252.529156000001</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45779</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>11252.529156000001</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45782</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>11219.750203</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45783</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>11299.043441</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45784</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>11346.575178999999</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45785</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>11440.00635</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45786</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>11482.242896</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45789</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>11471.766915</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45790</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>11487.750916000001</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45791</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>11438.394816</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45792</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>11438.394816</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45793</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>11501.763355999999</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45796</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>11554.245873</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45797</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>11524.836576</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45798</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>11481.637656999999</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45799</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>11525.702278999999</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45800</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>11538.097507</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45803</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>11553.315006000001</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45804</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>11611.387575000001</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45805</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>11573.975656000001</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45806</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>11572.549281</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45807</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>11572.549281</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45810</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>11501.188667</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45811</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>11504.147005999999</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45812</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>11534.495883</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45813</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>11523.003987</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45814</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>11523.003987</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45817</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>11510.735371000001</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45818</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>11469.204188</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45819</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>11501.108989</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45820</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>11495.994081000001</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45821</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>11517.511026</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45824</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>11539.224668000001</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45825</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>11553.187776000001</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45826</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>11581.369804</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45828</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>11645.022854000001</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45831</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>11625.925598</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45832</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>11595.74804</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45833</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>11581.971783999999</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45834</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>11618.728372</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45835</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>11650.596162</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45838</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>11742.771423</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>45839</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>11760.125684000001</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45840</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>11738.976639</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45841</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>11743.877037</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45842</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>11737.581273</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45845</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>11698.733249000001</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45846</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>11652.332112</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45847</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>11617.707809</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45848</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>11611.020655</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>45849</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>11656.098128</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>45852</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>11629.233174999999</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45853</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>11564.396108999999</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45854</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>11508.698645</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45855</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>11544.074012999999</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45856</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>11516.525738</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45859</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>11512.782471</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45860</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>11509.169782999999</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45861</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>11530.936863000001</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45862</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>11541.367375</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45863</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>11516.758167</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45866</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>11521.754534</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45867</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>11572.115229000001</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45868</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>11579.413925999999</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45869</v>
       </c>
@@ -6808,6 +6808,426 @@
       </c>
       <c r="F317">
         <v>11564.795442000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B318">
+        <v>1.10179855</v>
+      </c>
+      <c r="C318" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D318">
+        <v>5.5435999999999996</v>
+      </c>
+      <c r="E318" s="3">
+        <v>132437</v>
+      </c>
+      <c r="F318">
+        <v>11604.500313</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B319">
+        <v>1.10449211</v>
+      </c>
+      <c r="C319" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D319">
+        <v>5.5113000000000003</v>
+      </c>
+      <c r="E319" s="3">
+        <v>132971</v>
+      </c>
+      <c r="F319">
+        <v>11613.554083000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B320">
+        <v>1.10507606</v>
+      </c>
+      <c r="C320" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D320">
+        <v>5.5118999999999998</v>
+      </c>
+      <c r="E320" s="3">
+        <v>133151</v>
+      </c>
+      <c r="F320">
+        <v>11598.225754999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B321">
+        <v>1.10842964</v>
+      </c>
+      <c r="C321" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D321">
+        <v>5.4802</v>
+      </c>
+      <c r="E321" s="3">
+        <v>134537</v>
+      </c>
+      <c r="F321">
+        <v>11610.498810999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B322">
+        <v>1.11289989</v>
+      </c>
+      <c r="C322" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D322">
+        <v>5.4638</v>
+      </c>
+      <c r="E322" s="3">
+        <v>136527</v>
+      </c>
+      <c r="F322">
+        <v>11696.260666</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B323">
+        <v>1.1131573100000001</v>
+      </c>
+      <c r="C323" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D323">
+        <v>5.4253999999999998</v>
+      </c>
+      <c r="E323" s="3">
+        <v>135913</v>
+      </c>
+      <c r="F323">
+        <v>11704.877333</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B324">
+        <v>1.11183309</v>
+      </c>
+      <c r="C324" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D324">
+        <v>5.4473000000000003</v>
+      </c>
+      <c r="E324" s="3">
+        <v>135623</v>
+      </c>
+      <c r="F324">
+        <v>11725.298403999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B325">
+        <v>1.1160320399999999</v>
+      </c>
+      <c r="C325" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D325">
+        <v>5.4051999999999998</v>
+      </c>
+      <c r="E325" s="3">
+        <v>137913</v>
+      </c>
+      <c r="F325">
+        <v>11714.498426</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B326">
+        <v>1.11649975</v>
+      </c>
+      <c r="C326" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D326">
+        <v>5.3928000000000003</v>
+      </c>
+      <c r="E326" s="3">
+        <v>136687</v>
+      </c>
+      <c r="F326">
+        <v>11720.631023</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B327">
+        <v>1.11508863</v>
+      </c>
+      <c r="C327" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D327">
+        <v>5.4095000000000004</v>
+      </c>
+      <c r="E327" s="3">
+        <v>136355</v>
+      </c>
+      <c r="F327">
+        <v>11739.234329000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B328">
+        <v>1.11523353</v>
+      </c>
+      <c r="C328" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D328">
+        <v>5.3928000000000003</v>
+      </c>
+      <c r="E328" s="3">
+        <v>136340</v>
+      </c>
+      <c r="F328">
+        <v>11730.644568</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B329">
+        <v>1.11273109</v>
+      </c>
+      <c r="C329" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D329">
+        <v>5.4154999999999998</v>
+      </c>
+      <c r="E329" s="3">
+        <v>137321</v>
+      </c>
+      <c r="F329">
+        <v>11690.278031</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B330">
+        <v>1.1033920800000001</v>
+      </c>
+      <c r="C330" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D330">
+        <v>5.4715999999999996</v>
+      </c>
+      <c r="E330" s="3">
+        <v>134432</v>
+      </c>
+      <c r="F330">
+        <v>11690.278031</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B331">
+        <v>1.1036437800000001</v>
+      </c>
+      <c r="C331" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D331">
+        <v>5.4725999999999999</v>
+      </c>
+      <c r="E331" s="3">
+        <v>134666</v>
+      </c>
+      <c r="F331">
+        <v>11525.183332000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B332">
+        <v>1.09915305</v>
+      </c>
+      <c r="C332" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D332">
+        <v>5.4828000000000001</v>
+      </c>
+      <c r="E332" s="3">
+        <v>134510</v>
+      </c>
+      <c r="F332">
+        <v>11494.500781999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B333">
+        <v>1.10758307</v>
+      </c>
+      <c r="C333" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D333">
+        <v>5.4391999999999996</v>
+      </c>
+      <c r="E333" s="3">
+        <v>137968</v>
+      </c>
+      <c r="F333">
+        <v>11567.747415</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B334">
+        <v>1.10797407</v>
+      </c>
+      <c r="C334" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D334">
+        <v>5.4173999999999998</v>
+      </c>
+      <c r="E334" s="3">
+        <v>138025</v>
+      </c>
+      <c r="F334">
+        <v>11614.392760999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B335">
+        <v>1.1087343199999999</v>
+      </c>
+      <c r="C335" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D335">
+        <v>5.4218000000000002</v>
+      </c>
+      <c r="E335" s="3">
+        <v>137771</v>
+      </c>
+      <c r="F335">
+        <v>11621.421036</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B336">
+        <v>1.1099207099999999</v>
+      </c>
+      <c r="C336" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D336">
+        <v>5.4428000000000001</v>
+      </c>
+      <c r="E336" s="3">
+        <v>139205</v>
+      </c>
+      <c r="F336">
+        <v>11620.591924</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B337">
+        <v>1.1150461700000001</v>
+      </c>
+      <c r="C337" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D337">
+        <v>5.4115000000000002</v>
+      </c>
+      <c r="E337" s="3">
+        <v>141049</v>
+      </c>
+      <c r="F337">
+        <v>11664.643768</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B338">
+        <v>1.11368915881111</v>
+      </c>
+      <c r="C338" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D338">
+        <v>5.4264000000000001</v>
+      </c>
+      <c r="E338" s="3">
+        <v>141422</v>
+      </c>
+      <c r="F338">
+        <v>11626.865241</v>
       </c>
     </row>
   </sheetData>
@@ -6818,21 +7238,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B25821-3913-4441-A46B-D72EC7900227}">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188:C210"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E211" sqref="E211:E231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6852,7 +7272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45565</v>
       </c>
@@ -6872,7 +7292,7 @@
         <v>11301.111945000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45566</v>
       </c>
@@ -6892,7 +7312,7 @@
         <v>11321.016347000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45567</v>
       </c>
@@ -6912,7 +7332,7 @@
         <v>11323.973563</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45568</v>
       </c>
@@ -6932,7 +7352,7 @@
         <v>11313.836579000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45569</v>
       </c>
@@ -6952,7 +7372,7 @@
         <v>11275.780406</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45572</v>
       </c>
@@ -6972,7 +7392,7 @@
         <v>11327.340199</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45573</v>
       </c>
@@ -6992,7 +7412,7 @@
         <v>11362.858698</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45574</v>
       </c>
@@ -7012,7 +7432,7 @@
         <v>11288.753414000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45575</v>
       </c>
@@ -7032,7 +7452,7 @@
         <v>11321.156239</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45576</v>
       </c>
@@ -7052,7 +7472,7 @@
         <v>11320.048672000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45579</v>
       </c>
@@ -7072,7 +7492,7 @@
         <v>11296.223859</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45580</v>
       </c>
@@ -7092,7 +7512,7 @@
         <v>11255.662695000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45581</v>
       </c>
@@ -7112,7 +7532,7 @@
         <v>11215.074903000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45582</v>
       </c>
@@ -7132,7 +7552,7 @@
         <v>11202.495983000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45583</v>
       </c>
@@ -7152,7 +7572,7 @@
         <v>11141.423776</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45586</v>
       </c>
@@ -7172,7 +7592,7 @@
         <v>11127.671936000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45587</v>
       </c>
@@ -7192,7 +7612,7 @@
         <v>11123.966766</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45588</v>
       </c>
@@ -7212,7 +7632,7 @@
         <v>11077.007283999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45589</v>
       </c>
@@ -7232,7 +7652,7 @@
         <v>11180.5828</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45590</v>
       </c>
@@ -7252,7 +7672,7 @@
         <v>11132.24121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45593</v>
       </c>
@@ -7272,7 +7692,7 @@
         <v>11102.380609</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45594</v>
       </c>
@@ -7292,7 +7712,7 @@
         <v>11072.925624</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45595</v>
       </c>
@@ -7312,7 +7732,7 @@
         <v>11096.071900999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45596</v>
       </c>
@@ -7332,7 +7752,7 @@
         <v>11113.630809</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45597</v>
       </c>
@@ -7352,7 +7772,7 @@
         <v>11062.223228999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45600</v>
       </c>
@@ -7372,7 +7792,7 @@
         <v>11177.618531</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45601</v>
       </c>
@@ -7392,7 +7812,7 @@
         <v>11189.85248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45602</v>
       </c>
@@ -7412,7 +7832,7 @@
         <v>11206.252865</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45603</v>
       </c>
@@ -7432,7 +7852,7 @@
         <v>11278.553821</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45604</v>
       </c>
@@ -7452,7 +7872,7 @@
         <v>11316.76584</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45607</v>
       </c>
@@ -7472,7 +7892,7 @@
         <v>11295.418186999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45608</v>
       </c>
@@ -7492,7 +7912,7 @@
         <v>11140.150078999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45609</v>
       </c>
@@ -7512,7 +7932,7 @@
         <v>11149.394624</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45610</v>
       </c>
@@ -7532,7 +7952,7 @@
         <v>11172.765740999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45614</v>
       </c>
@@ -7552,7 +7972,7 @@
         <v>11192.533303</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45615</v>
       </c>
@@ -7572,7 +7992,7 @@
         <v>11239.825902</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45617</v>
       </c>
@@ -7592,7 +8012,7 @@
         <v>11292.741137999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45618</v>
       </c>
@@ -7612,7 +8032,7 @@
         <v>11237.37573</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45621</v>
       </c>
@@ -7632,7 +8052,7 @@
         <v>11263.320168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45622</v>
       </c>
@@ -7652,7 +8072,7 @@
         <v>11254.338121000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45623</v>
       </c>
@@ -7672,7 +8092,7 @@
         <v>11133.033982000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45624</v>
       </c>
@@ -7692,7 +8112,7 @@
         <v>11057.010329000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45625</v>
       </c>
@@ -7712,7 +8132,7 @@
         <v>11088.485752000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45628</v>
       </c>
@@ -7732,7 +8152,7 @@
         <v>11124.038197</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45629</v>
       </c>
@@ -7752,7 +8172,7 @@
         <v>11043.376823000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45630</v>
       </c>
@@ -7772,7 +8192,7 @@
         <v>11081.339268</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45631</v>
       </c>
@@ -7792,7 +8212,7 @@
         <v>11070.196459000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45632</v>
       </c>
@@ -7812,7 +8232,7 @@
         <v>11007.408052999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45635</v>
       </c>
@@ -7832,7 +8252,7 @@
         <v>11007.408052999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45636</v>
       </c>
@@ -7852,7 +8272,7 @@
         <v>11076.335912</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45637</v>
       </c>
@@ -7872,7 +8292,7 @@
         <v>11234.641379000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45638</v>
       </c>
@@ -7892,7 +8312,7 @@
         <v>11158.619379</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45639</v>
       </c>
@@ -7912,7 +8332,7 @@
         <v>11002.684442</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45642</v>
       </c>
@@ -7932,7 +8352,7 @@
         <v>10803.550020999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45643</v>
       </c>
@@ -7952,7 +8372,7 @@
         <v>10718.697704</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45644</v>
       </c>
@@ -7972,7 +8392,7 @@
         <v>10718.697704</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45645</v>
       </c>
@@ -7992,7 +8412,7 @@
         <v>10722.122278000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45646</v>
       </c>
@@ -8012,7 +8432,7 @@
         <v>10818.542012</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45649</v>
       </c>
@@ -8032,7 +8452,7 @@
         <v>10786.228848000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45650</v>
       </c>
@@ -8052,7 +8472,7 @@
         <v>10792.639749</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45652</v>
       </c>
@@ -8072,7 +8492,7 @@
         <v>10766.524673</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45653</v>
       </c>
@@ -8092,7 +8512,7 @@
         <v>10676.426094</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45656</v>
       </c>
@@ -8112,7 +8532,7 @@
         <v>10597.68447</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45657</v>
       </c>
@@ -8132,7 +8552,7 @@
         <v>10603.594494999999</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45659</v>
       </c>
@@ -8152,7 +8572,7 @@
         <v>10643.805367999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45660</v>
       </c>
@@ -8172,7 +8592,7 @@
         <v>10658.576499999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45663</v>
       </c>
@@ -8192,7 +8612,7 @@
         <v>10710.955532</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45664</v>
       </c>
@@ -8212,7 +8632,7 @@
         <v>10699.747600999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45665</v>
       </c>
@@ -8232,7 +8652,7 @@
         <v>10711.934073</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45666</v>
       </c>
@@ -8252,7 +8672,7 @@
         <v>10718.404125999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45667</v>
       </c>
@@ -8272,7 +8692,7 @@
         <v>10675.627274</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45670</v>
       </c>
@@ -8292,7 +8712,7 @@
         <v>10634.206531</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45671</v>
       </c>
@@ -8312,7 +8732,7 @@
         <v>10676.261273</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45672</v>
       </c>
@@ -8332,7 +8752,7 @@
         <v>10676.261273</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45673</v>
       </c>
@@ -8352,7 +8772,7 @@
         <v>10675.210026999999</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45674</v>
       </c>
@@ -8372,7 +8792,7 @@
         <v>10607.372679</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45677</v>
       </c>
@@ -8392,7 +8812,7 @@
         <v>10570.048191</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45678</v>
       </c>
@@ -8412,7 +8832,7 @@
         <v>10515.188211999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45679</v>
       </c>
@@ -8432,7 +8852,7 @@
         <v>10534.429247</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45680</v>
       </c>
@@ -8452,7 +8872,7 @@
         <v>10501.702534</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45681</v>
       </c>
@@ -8472,7 +8892,7 @@
         <v>10525.188989</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45684</v>
       </c>
@@ -8492,7 +8912,7 @@
         <v>10528.001413</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45685</v>
       </c>
@@ -8512,7 +8932,7 @@
         <v>10530.395587000001</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45686</v>
       </c>
@@ -8532,7 +8952,7 @@
         <v>10522.170726</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45687</v>
       </c>
@@ -8552,7 +8972,7 @@
         <v>10680.496370999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45688</v>
       </c>
@@ -8572,7 +8992,7 @@
         <v>10649.638467999999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45691</v>
       </c>
@@ -8592,7 +9012,7 @@
         <v>10693.813815</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45692</v>
       </c>
@@ -8612,7 +9032,7 @@
         <v>10681.935701</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45693</v>
       </c>
@@ -8632,7 +9052,7 @@
         <v>10629.135528000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45694</v>
       </c>
@@ -8652,7 +9072,7 @@
         <v>10664.226579</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45695</v>
       </c>
@@ -8672,7 +9092,7 @@
         <v>10648.420232</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45698</v>
       </c>
@@ -8692,7 +9112,7 @@
         <v>10648.420232</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45699</v>
       </c>
@@ -8712,7 +9132,7 @@
         <v>10686.253244</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45700</v>
       </c>
@@ -8732,7 +9152,7 @@
         <v>10687.165011999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45701</v>
       </c>
@@ -8752,7 +9172,7 @@
         <v>10687.165011999999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45702</v>
       </c>
@@ -8772,7 +9192,7 @@
         <v>10827.678162</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45705</v>
       </c>
@@ -8792,7 +9212,7 @@
         <v>10882.034589999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45706</v>
       </c>
@@ -8812,7 +9232,7 @@
         <v>10872.440975</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45707</v>
       </c>
@@ -8832,7 +9252,7 @@
         <v>10847.538070000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45708</v>
       </c>
@@ -8852,7 +9272,7 @@
         <v>10847.538070000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45709</v>
       </c>
@@ -8872,7 +9292,7 @@
         <v>10883.646675</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45712</v>
       </c>
@@ -8892,7 +9312,7 @@
         <v>10883.646675</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45713</v>
       </c>
@@ -8912,7 +9332,7 @@
         <v>10838.622155999999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45714</v>
       </c>
@@ -8932,7 +9352,7 @@
         <v>10775.718602999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45715</v>
       </c>
@@ -8952,7 +9372,7 @@
         <v>10719.634187</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45716</v>
       </c>
@@ -8972,7 +9392,7 @@
         <v>10693.115322</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45721</v>
       </c>
@@ -8992,7 +9412,7 @@
         <v>10786.539397</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45722</v>
       </c>
@@ -9012,7 +9432,7 @@
         <v>10787.463927999999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45723</v>
       </c>
@@ -9032,7 +9452,7 @@
         <v>10822.231807</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45726</v>
       </c>
@@ -9052,7 +9472,7 @@
         <v>10828.342773</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45727</v>
       </c>
@@ -9072,7 +9492,7 @@
         <v>10885.508752</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45728</v>
       </c>
@@ -9092,7 +9512,7 @@
         <v>10885.508752</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45729</v>
       </c>
@@ -9112,7 +9532,7 @@
         <v>10910.789191</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45730</v>
       </c>
@@ -9132,7 +9552,7 @@
         <v>10890.779734</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45733</v>
       </c>
@@ -9152,7 +9572,7 @@
         <v>10895.863558999999</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45734</v>
       </c>
@@ -9172,7 +9592,7 @@
         <v>10945.912866999999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45735</v>
       </c>
@@ -9192,7 +9612,7 @@
         <v>10996.83576</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45736</v>
       </c>
@@ -9212,7 +9632,7 @@
         <v>10937.456523999999</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45737</v>
       </c>
@@ -9232,7 +9652,7 @@
         <v>10963.010233000001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45740</v>
       </c>
@@ -9252,7 +9672,7 @@
         <v>10924.551122000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45741</v>
       </c>
@@ -9272,7 +9692,7 @@
         <v>10937.677298000001</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45742</v>
       </c>
@@ -9292,7 +9712,7 @@
         <v>10933.843564000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45743</v>
       </c>
@@ -9312,7 +9732,7 @@
         <v>10946.063774</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45744</v>
       </c>
@@ -9332,7 +9752,7 @@
         <v>10951.012783</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45747</v>
       </c>
@@ -9352,7 +9772,7 @@
         <v>10995.855501</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45748</v>
       </c>
@@ -9372,7 +9792,7 @@
         <v>10975.137001999999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45749</v>
       </c>
@@ -9392,7 +9812,7 @@
         <v>10971.141105000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45750</v>
       </c>
@@ -9412,7 +9832,7 @@
         <v>11119.069708000001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45751</v>
       </c>
@@ -9432,7 +9852,7 @@
         <v>11134.652222000001</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45754</v>
       </c>
@@ -9452,7 +9872,7 @@
         <v>11134.652222000001</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45755</v>
       </c>
@@ -9472,7 +9892,7 @@
         <v>11047.644947999999</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45756</v>
       </c>
@@ -9492,7 +9912,7 @@
         <v>11023.695645</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45757</v>
       </c>
@@ -9512,7 +9932,7 @@
         <v>10966.036646</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45758</v>
       </c>
@@ -9532,7 +9952,7 @@
         <v>11069.909092</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45761</v>
       </c>
@@ -9552,7 +9972,7 @@
         <v>11121.819232</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45762</v>
       </c>
@@ -9572,7 +9992,7 @@
         <v>11086.602842</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45763</v>
       </c>
@@ -9592,7 +10012,7 @@
         <v>11081.212522</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45764</v>
       </c>
@@ -9612,7 +10032,7 @@
         <v>11086.642276</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45769</v>
       </c>
@@ -9632,7 +10052,7 @@
         <v>10993.02886</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45770</v>
       </c>
@@ -9652,7 +10072,7 @@
         <v>11042.011238999999</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45771</v>
       </c>
@@ -9672,7 +10092,7 @@
         <v>11132.298994000001</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45772</v>
       </c>
@@ -9692,7 +10112,7 @@
         <v>11163.907663</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45775</v>
       </c>
@@ -9712,7 +10132,7 @@
         <v>11191.518932000001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45776</v>
       </c>
@@ -9732,7 +10152,7 @@
         <v>11215.927358000001</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45777</v>
       </c>
@@ -9752,7 +10172,7 @@
         <v>11252.529156000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45779</v>
       </c>
@@ -9772,7 +10192,7 @@
         <v>11252.529156000001</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45782</v>
       </c>
@@ -9792,7 +10212,7 @@
         <v>11219.750203</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45783</v>
       </c>
@@ -9812,7 +10232,7 @@
         <v>11299.043441</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45784</v>
       </c>
@@ -9832,7 +10252,7 @@
         <v>11346.575178999999</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45785</v>
       </c>
@@ -9852,7 +10272,7 @@
         <v>11440.00635</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45786</v>
       </c>
@@ -9872,7 +10292,7 @@
         <v>11482.242896</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45789</v>
       </c>
@@ -9892,7 +10312,7 @@
         <v>11471.766915</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45790</v>
       </c>
@@ -9912,7 +10332,7 @@
         <v>11487.750916000001</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45791</v>
       </c>
@@ -9932,7 +10352,7 @@
         <v>11438.394816</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45792</v>
       </c>
@@ -9952,7 +10372,7 @@
         <v>11438.394816</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45793</v>
       </c>
@@ -9972,7 +10392,7 @@
         <v>11501.763355999999</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45796</v>
       </c>
@@ -9992,7 +10412,7 @@
         <v>11554.245873</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45797</v>
       </c>
@@ -10012,7 +10432,7 @@
         <v>11524.836576</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45798</v>
       </c>
@@ -10032,7 +10452,7 @@
         <v>11481.637656999999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45799</v>
       </c>
@@ -10052,7 +10472,7 @@
         <v>11525.702278999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45800</v>
       </c>
@@ -10072,7 +10492,7 @@
         <v>11538.097507</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45803</v>
       </c>
@@ -10092,7 +10512,7 @@
         <v>11553.315006000001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45804</v>
       </c>
@@ -10112,7 +10532,7 @@
         <v>11611.387575000001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45805</v>
       </c>
@@ -10132,7 +10552,7 @@
         <v>11573.975656000001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45806</v>
       </c>
@@ -10152,7 +10572,7 @@
         <v>11572.549281</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45807</v>
       </c>
@@ -10172,7 +10592,7 @@
         <v>11572.549281</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45810</v>
       </c>
@@ -10192,7 +10612,7 @@
         <v>11501.188667</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45811</v>
       </c>
@@ -10212,7 +10632,7 @@
         <v>11504.147005999999</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45812</v>
       </c>
@@ -10232,7 +10652,7 @@
         <v>11534.495883</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45813</v>
       </c>
@@ -10252,7 +10672,7 @@
         <v>11523.003987</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45814</v>
       </c>
@@ -10272,7 +10692,7 @@
         <v>11523.003987</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45817</v>
       </c>
@@ -10292,7 +10712,7 @@
         <v>11510.735371000001</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45818</v>
       </c>
@@ -10312,7 +10732,7 @@
         <v>11469.204188</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45819</v>
       </c>
@@ -10332,7 +10752,7 @@
         <v>11501.108989</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45820</v>
       </c>
@@ -10352,7 +10772,7 @@
         <v>11495.994081000001</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45821</v>
       </c>
@@ -10372,7 +10792,7 @@
         <v>11517.511026</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45824</v>
       </c>
@@ -10392,7 +10812,7 @@
         <v>11539.224668000001</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45825</v>
       </c>
@@ -10412,7 +10832,7 @@
         <v>11553.187776000001</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45826</v>
       </c>
@@ -10432,7 +10852,7 @@
         <v>11581.369804</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45828</v>
       </c>
@@ -10452,7 +10872,7 @@
         <v>11645.022854000001</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45831</v>
       </c>
@@ -10472,7 +10892,7 @@
         <v>11625.925598</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45832</v>
       </c>
@@ -10492,7 +10912,7 @@
         <v>11595.74804</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45833</v>
       </c>
@@ -10512,7 +10932,7 @@
         <v>11581.971783999999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45834</v>
       </c>
@@ -10532,7 +10952,7 @@
         <v>11618.728372</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45835</v>
       </c>
@@ -10552,7 +10972,7 @@
         <v>11650.596162</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45838</v>
       </c>
@@ -10572,7 +10992,7 @@
         <v>11742.771423</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45839</v>
       </c>
@@ -10592,7 +11012,7 @@
         <v>11760.125684000001</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45840</v>
       </c>
@@ -10612,7 +11032,7 @@
         <v>11738.976639</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45841</v>
       </c>
@@ -10632,7 +11052,7 @@
         <v>11743.877037</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45842</v>
       </c>
@@ -10652,7 +11072,7 @@
         <v>11737.581273</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45845</v>
       </c>
@@ -10672,7 +11092,7 @@
         <v>11698.733249000001</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45846</v>
       </c>
@@ -10692,7 +11112,7 @@
         <v>11652.332112</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45847</v>
       </c>
@@ -10712,7 +11132,7 @@
         <v>11617.707809</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45848</v>
       </c>
@@ -10732,7 +11152,7 @@
         <v>11611.020655</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45849</v>
       </c>
@@ -10752,7 +11172,7 @@
         <v>11656.098128</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45852</v>
       </c>
@@ -10772,7 +11192,7 @@
         <v>11629.233174999999</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45853</v>
       </c>
@@ -10792,7 +11212,7 @@
         <v>11564.396108999999</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45854</v>
       </c>
@@ -10812,7 +11232,7 @@
         <v>11508.698645</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45855</v>
       </c>
@@ -10832,7 +11252,7 @@
         <v>11544.074012999999</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45856</v>
       </c>
@@ -10852,7 +11272,7 @@
         <v>11516.525738</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45859</v>
       </c>
@@ -10872,7 +11292,7 @@
         <v>11512.782471</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45860</v>
       </c>
@@ -10892,7 +11312,7 @@
         <v>11509.169782999999</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45861</v>
       </c>
@@ -10912,7 +11332,7 @@
         <v>11530.936863000001</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45862</v>
       </c>
@@ -10932,7 +11352,7 @@
         <v>11541.367375</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45863</v>
       </c>
@@ -10952,7 +11372,7 @@
         <v>11516.758167</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45866</v>
       </c>
@@ -10972,7 +11392,7 @@
         <v>11521.754534</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45867</v>
       </c>
@@ -10992,7 +11412,7 @@
         <v>11572.115229000001</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45868</v>
       </c>
@@ -11012,7 +11432,7 @@
         <v>11579.413925999999</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45869</v>
       </c>
@@ -11030,6 +11450,426 @@
       </c>
       <c r="F210">
         <v>11564.795442000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B211">
+        <v>1.0077476299999999</v>
+      </c>
+      <c r="C211" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D211">
+        <v>5.5435999999999996</v>
+      </c>
+      <c r="E211" s="3">
+        <v>132437</v>
+      </c>
+      <c r="F211">
+        <v>11604.500313</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B212">
+        <v>1.01216814</v>
+      </c>
+      <c r="C212" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D212">
+        <v>5.5113000000000003</v>
+      </c>
+      <c r="E212" s="3">
+        <v>132971</v>
+      </c>
+      <c r="F212">
+        <v>11613.554083000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B213">
+        <v>1.0126543699999999</v>
+      </c>
+      <c r="C213" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D213">
+        <v>5.5118999999999998</v>
+      </c>
+      <c r="E213" s="3">
+        <v>133151</v>
+      </c>
+      <c r="F213">
+        <v>11598.225754999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B214">
+        <v>1.02266017</v>
+      </c>
+      <c r="C214" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D214">
+        <v>5.4802</v>
+      </c>
+      <c r="E214" s="3">
+        <v>134537</v>
+      </c>
+      <c r="F214">
+        <v>11610.498810999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B215">
+        <v>1.0330514500000001</v>
+      </c>
+      <c r="C215" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D215">
+        <v>5.4638</v>
+      </c>
+      <c r="E215" s="3">
+        <v>136527</v>
+      </c>
+      <c r="F215">
+        <v>11696.260666</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B216">
+        <v>1.0300714</v>
+      </c>
+      <c r="C216" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D216">
+        <v>5.4253999999999998</v>
+      </c>
+      <c r="E216" s="3">
+        <v>135913</v>
+      </c>
+      <c r="F216">
+        <v>11704.877333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B217">
+        <v>1.0220465299999999</v>
+      </c>
+      <c r="C217" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D217">
+        <v>5.4473000000000003</v>
+      </c>
+      <c r="E217" s="3">
+        <v>135623</v>
+      </c>
+      <c r="F217">
+        <v>11725.298403999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B218">
+        <v>1.03820169</v>
+      </c>
+      <c r="C218" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D218">
+        <v>5.4051999999999998</v>
+      </c>
+      <c r="E218" s="3">
+        <v>137913</v>
+      </c>
+      <c r="F218">
+        <v>11714.498426</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B219">
+        <v>1.03286919</v>
+      </c>
+      <c r="C219" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D219">
+        <v>5.3928000000000003</v>
+      </c>
+      <c r="E219" s="3">
+        <v>136687</v>
+      </c>
+      <c r="F219">
+        <v>11720.631023</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B220">
+        <v>1.03298373</v>
+      </c>
+      <c r="C220" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D220">
+        <v>5.4095000000000004</v>
+      </c>
+      <c r="E220" s="3">
+        <v>136355</v>
+      </c>
+      <c r="F220">
+        <v>11739.234329000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B221">
+        <v>1.0372670100000001</v>
+      </c>
+      <c r="C221" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D221">
+        <v>5.3928000000000003</v>
+      </c>
+      <c r="E221" s="3">
+        <v>136340</v>
+      </c>
+      <c r="F221">
+        <v>11730.644568</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B222">
+        <v>1.0418113499999999</v>
+      </c>
+      <c r="C222" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D222">
+        <v>5.4154999999999998</v>
+      </c>
+      <c r="E222" s="3">
+        <v>137321</v>
+      </c>
+      <c r="F222">
+        <v>11690.278031</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B223">
+        <v>1.0177882199999999</v>
+      </c>
+      <c r="C223" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D223">
+        <v>5.4715999999999996</v>
+      </c>
+      <c r="E223" s="3">
+        <v>134432</v>
+      </c>
+      <c r="F223">
+        <v>11690.278031</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B224">
+        <v>1.01875823</v>
+      </c>
+      <c r="C224" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D224">
+        <v>5.4725999999999999</v>
+      </c>
+      <c r="E224" s="3">
+        <v>134666</v>
+      </c>
+      <c r="F224">
+        <v>11525.183332000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B225">
+        <v>1.01393925</v>
+      </c>
+      <c r="C225" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D225">
+        <v>5.4828000000000001</v>
+      </c>
+      <c r="E225" s="3">
+        <v>134510</v>
+      </c>
+      <c r="F225">
+        <v>11494.500781999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B226">
+        <v>1.03555781</v>
+      </c>
+      <c r="C226" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D226">
+        <v>5.4391999999999996</v>
+      </c>
+      <c r="E226" s="3">
+        <v>137968</v>
+      </c>
+      <c r="F226">
+        <v>11567.747415</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B227">
+        <v>1.0359794499999999</v>
+      </c>
+      <c r="C227" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D227">
+        <v>5.4173999999999998</v>
+      </c>
+      <c r="E227" s="3">
+        <v>138025</v>
+      </c>
+      <c r="F227">
+        <v>11614.392760999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B228">
+        <v>1.0347792</v>
+      </c>
+      <c r="C228" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D228">
+        <v>5.4218000000000002</v>
+      </c>
+      <c r="E228" s="3">
+        <v>137771</v>
+      </c>
+      <c r="F228">
+        <v>11621.421036</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B229">
+        <v>1.0443373199999999</v>
+      </c>
+      <c r="C229" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D229">
+        <v>5.4428000000000001</v>
+      </c>
+      <c r="E229" s="3">
+        <v>139205</v>
+      </c>
+      <c r="F229">
+        <v>11620.591924</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B230">
+        <v>1.06195832</v>
+      </c>
+      <c r="C230" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D230">
+        <v>5.4115000000000002</v>
+      </c>
+      <c r="E230" s="3">
+        <v>141049</v>
+      </c>
+      <c r="F230">
+        <v>11664.643768</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B231">
+        <v>1.05867793074952</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5.5130999999999995E-4</v>
+      </c>
+      <c r="D231">
+        <v>5.4264000000000001</v>
+      </c>
+      <c r="E231" s="3">
+        <v>141422</v>
+      </c>
+      <c r="F231">
+        <v>11626.865241</v>
       </c>
     </row>
   </sheetData>
@@ -11040,19 +11880,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306A59AC-B162-462F-9921-512153E3D23A}">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181:C201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11063,7 +11903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45607</v>
       </c>
@@ -11074,7 +11914,7 @@
         <v>1.9161058900000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45608</v>
       </c>
@@ -11085,7 +11925,7 @@
         <v>1.9171931799999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45609</v>
       </c>
@@ -11096,7 +11936,7 @@
         <v>1.91835449</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45610</v>
       </c>
@@ -11107,7 +11947,7 @@
         <v>1.9192752</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45614</v>
       </c>
@@ -11118,7 +11958,7 @@
         <v>1.92049184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45615</v>
       </c>
@@ -11129,7 +11969,7 @@
         <v>1.91876274</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45617</v>
       </c>
@@ -11140,7 +11980,7 @@
         <v>1.9199784900000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45618</v>
       </c>
@@ -11151,7 +11991,7 @@
         <v>1.9208061400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45621</v>
       </c>
@@ -11162,7 +12002,7 @@
         <v>1.92207276</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45622</v>
       </c>
@@ -11173,7 +12013,7 @@
         <v>1.9232242900000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45623</v>
       </c>
@@ -11184,7 +12024,7 @@
         <v>1.9232814</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45624</v>
       </c>
@@ -11195,7 +12035,7 @@
         <v>1.9237175099999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45625</v>
       </c>
@@ -11206,7 +12046,7 @@
         <v>1.9246425599999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45628</v>
       </c>
@@ -11217,7 +12057,7 @@
         <v>1.9249409</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45629</v>
       </c>
@@ -11228,7 +12068,7 @@
         <v>1.92535934</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45630</v>
       </c>
@@ -11239,7 +12079,7 @@
         <v>1.9267377400000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45631</v>
       </c>
@@ -11250,7 +12090,7 @@
         <v>1.92765684</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45632</v>
       </c>
@@ -11261,7 +12101,7 @@
         <v>1.9278247500000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45635</v>
       </c>
@@ -11272,7 +12112,7 @@
         <v>1.9257181400000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45636</v>
       </c>
@@ -11283,7 +12123,7 @@
         <v>1.92639256</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45637</v>
       </c>
@@ -11294,7 +12134,7 @@
         <v>1.9271649099999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45638</v>
       </c>
@@ -11305,7 +12145,7 @@
         <v>1.92805742</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45639</v>
       </c>
@@ -11316,7 +12156,7 @@
         <v>1.928661</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45642</v>
       </c>
@@ -11327,7 +12167,7 @@
         <v>1.9291670599999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45643</v>
       </c>
@@ -11338,7 +12178,7 @@
         <v>1.92834309</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45644</v>
       </c>
@@ -11349,7 +12189,7 @@
         <v>1.9286728500000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45645</v>
       </c>
@@ -11360,7 +12200,7 @@
         <v>1.9226604199999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45646</v>
       </c>
@@ -11371,7 +12211,7 @@
         <v>1.91545012</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45649</v>
       </c>
@@ -11382,7 +12222,7 @@
         <v>1.91337026</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45650</v>
       </c>
@@ -11393,7 +12233,7 @@
         <v>1.9144326300000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45652</v>
       </c>
@@ -11404,7 +12244,7 @@
         <v>1.9129051800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45653</v>
       </c>
@@ -11415,7 +12255,7 @@
         <v>1.91444258</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45656</v>
       </c>
@@ -11426,7 +12266,7 @@
         <v>1.9155385599999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45657</v>
       </c>
@@ -11437,7 +12277,7 @@
         <v>1.9166057700000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45659</v>
       </c>
@@ -11448,7 +12288,7 @@
         <v>1.91789948</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45660</v>
       </c>
@@ -11459,7 +12299,7 @@
         <v>1.91957394</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45663</v>
       </c>
@@ -11470,7 +12310,7 @@
         <v>1.92150037</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45664</v>
       </c>
@@ -11481,7 +12321,7 @@
         <v>1.9235695399999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45665</v>
       </c>
@@ -11492,7 +12332,7 @@
         <v>1.92500822</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45666</v>
       </c>
@@ -11503,7 +12343,7 @@
         <v>1.9270570600000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45667</v>
       </c>
@@ -11514,7 +12354,7 @@
         <v>1.92871375</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45670</v>
       </c>
@@ -11525,7 +12365,7 @@
         <v>1.9295742199999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45671</v>
       </c>
@@ -11536,7 +12376,7 @@
         <v>1.9313796599999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45672</v>
       </c>
@@ -11547,7 +12387,7 @@
         <v>1.9328569900000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45673</v>
       </c>
@@ -11558,7 +12398,7 @@
         <v>1.93469387</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45674</v>
       </c>
@@ -11569,7 +12409,7 @@
         <v>1.9332840200000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45677</v>
       </c>
@@ -11580,7 +12420,7 @@
         <v>1.9375555799999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45678</v>
       </c>
@@ -11591,7 +12431,7 @@
         <v>1.9392197200000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45679</v>
       </c>
@@ -11602,7 +12442,7 @@
         <v>1.9407017</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45680</v>
       </c>
@@ -11613,7 +12453,7 @@
         <v>1.9426515200000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45681</v>
       </c>
@@ -11624,7 +12464,7 @@
         <v>1.943932</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45684</v>
       </c>
@@ -11635,7 +12475,7 @@
         <v>1.9453729500000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45685</v>
       </c>
@@ -11646,7 +12486,7 @@
         <v>1.9471260500000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45686</v>
       </c>
@@ -11657,7 +12497,7 @@
         <v>1.9483660700000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45687</v>
       </c>
@@ -11668,7 +12508,7 @@
         <v>1.9494926400000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45688</v>
       </c>
@@ -11679,7 +12519,7 @@
         <v>1.9509204600000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45691</v>
       </c>
@@ -11690,7 +12530,7 @@
         <v>1.9513699799999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45692</v>
       </c>
@@ -11701,7 +12541,7 @@
         <v>1.9531360099999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45693</v>
       </c>
@@ -11712,7 +12552,7 @@
         <v>1.9549186599999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45694</v>
       </c>
@@ -11723,7 +12563,7 @@
         <v>1.95632366</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45695</v>
       </c>
@@ -11734,7 +12574,7 @@
         <v>1.95753613</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45698</v>
       </c>
@@ -11745,7 +12585,7 @@
         <v>1.9589414700000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45699</v>
       </c>
@@ -11756,7 +12596,7 @@
         <v>1.9604092799999999</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45700</v>
       </c>
@@ -11767,7 +12607,7 @@
         <v>1.961508</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45701</v>
       </c>
@@ -11778,7 +12618,7 @@
         <v>1.96238618</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45702</v>
       </c>
@@ -11789,7 +12629,7 @@
         <v>1.9621809699999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45705</v>
       </c>
@@ -11800,7 +12640,7 @@
         <v>1.96520513</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45706</v>
       </c>
@@ -11811,7 +12651,7 @@
         <v>1.96705938</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45707</v>
       </c>
@@ -11822,7 +12662,7 @@
         <v>1.9682884899999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45708</v>
       </c>
@@ -11833,7 +12673,7 @@
         <v>1.96960387</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45709</v>
       </c>
@@ -11844,7 +12684,7 @@
         <v>1.9714797500000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45712</v>
       </c>
@@ -11855,7 +12695,7 @@
         <v>1.97228498</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45713</v>
       </c>
@@ -11866,7 +12706,7 @@
         <v>1.97490605</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45714</v>
       </c>
@@ -11877,7 +12717,7 @@
         <v>1.9760111899999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45715</v>
       </c>
@@ -11888,7 +12728,7 @@
         <v>1.97743315</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45716</v>
       </c>
@@ -11899,7 +12739,7 @@
         <v>1.97867711</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45721</v>
       </c>
@@ -11910,7 +12750,7 @@
         <v>1.9797851099999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45722</v>
       </c>
@@ -11921,7 +12761,7 @@
         <v>1.9806912299999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45723</v>
       </c>
@@ -11932,7 +12772,7 @@
         <v>1.98177417</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45726</v>
       </c>
@@ -11943,7 +12783,7 @@
         <v>1.98363497</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45727</v>
       </c>
@@ -11954,7 +12794,7 @@
         <v>1.9856005999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45728</v>
       </c>
@@ -11965,7 +12805,7 @@
         <v>1.98732599</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45729</v>
       </c>
@@ -11976,7 +12816,7 @@
         <v>1.9886003800000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45730</v>
       </c>
@@ -11987,7 +12827,7 @@
         <v>1.98842184</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45733</v>
       </c>
@@ -11998,7 +12838,7 @@
         <v>1.9910797099999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45734</v>
       </c>
@@ -12009,7 +12849,7 @@
         <v>1.99252918</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45735</v>
       </c>
@@ -12020,7 +12860,7 @@
         <v>1.99393468</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45736</v>
       </c>
@@ -12031,7 +12871,7 @@
         <v>1.99519618</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45737</v>
       </c>
@@ -12042,7 +12882,7 @@
         <v>1.9967566000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45740</v>
       </c>
@@ -12053,7 +12893,7 @@
         <v>1.99821972</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45741</v>
       </c>
@@ -12064,7 +12904,7 @@
         <v>1.99954685</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45742</v>
       </c>
@@ -12075,7 +12915,7 @@
         <v>2.0012640899999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45743</v>
       </c>
@@ -12086,7 +12926,7 @@
         <v>2.00276225</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45744</v>
       </c>
@@ -12097,7 +12937,7 @@
         <v>2.0028859300000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45747</v>
       </c>
@@ -12108,7 +12948,7 @@
         <v>2.0051629599999998</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45748</v>
       </c>
@@ -12119,7 +12959,7 @@
         <v>2.00604907</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45749</v>
       </c>
@@ -12130,7 +12970,7 @@
         <v>2.0075891600000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45750</v>
       </c>
@@ -12141,7 +12981,7 @@
         <v>2.0087886400000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45751</v>
       </c>
@@ -12152,7 +12992,7 @@
         <v>2.0101383899999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45754</v>
       </c>
@@ -12163,7 +13003,7 @@
         <v>2.01108902</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45755</v>
       </c>
@@ -12174,7 +13014,7 @@
         <v>2.0123264000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45756</v>
       </c>
@@ -12185,7 +13025,7 @@
         <v>2.0133698099999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45757</v>
       </c>
@@ -12196,7 +13036,7 @@
         <v>2.01470036</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45758</v>
       </c>
@@ -12207,7 +13047,7 @@
         <v>2.0158992499999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45761</v>
       </c>
@@ -12218,7 +13058,7 @@
         <v>2.0169203200000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45762</v>
       </c>
@@ -12229,7 +13069,7 @@
         <v>2.01805396</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45763</v>
       </c>
@@ -12240,7 +13080,7 @@
         <v>2.0198836999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45764</v>
       </c>
@@ -12251,7 +13091,7 @@
         <v>2.0208290199999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45769</v>
       </c>
@@ -12262,7 +13102,7 @@
         <v>2.0220911500000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45770</v>
       </c>
@@ -12273,7 +13113,7 @@
         <v>2.0229720100000002</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45771</v>
       </c>
@@ -12284,7 +13124,7 @@
         <v>2.02427555</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45772</v>
       </c>
@@ -12295,7 +13135,7 @@
         <v>2.0255509900000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45775</v>
       </c>
@@ -12306,7 +13146,7 @@
         <v>2.0266418700000002</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45776</v>
       </c>
@@ -12317,7 +13157,7 @@
         <v>2.0279498199999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45777</v>
       </c>
@@ -12328,7 +13168,7 @@
         <v>2.02924463</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45779</v>
       </c>
@@ -12339,7 +13179,7 @@
         <v>2.03047333</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45782</v>
       </c>
@@ -12350,7 +13190,7 @@
         <v>2.0312816300000001</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45783</v>
       </c>
@@ -12361,7 +13201,7 @@
         <v>2.0327200200000002</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45784</v>
       </c>
@@ -12372,7 +13212,7 @@
         <v>2.0338312799999998</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45785</v>
       </c>
@@ -12383,7 +13223,7 @@
         <v>2.03567739</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45786</v>
       </c>
@@ -12394,7 +13234,7 @@
         <v>2.0371075300000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45789</v>
       </c>
@@ -12405,7 +13245,7 @@
         <v>2.03871819</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45790</v>
       </c>
@@ -12416,7 +13256,7 @@
         <v>2.0402025300000002</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45791</v>
       </c>
@@ -12427,7 +13267,7 @@
         <v>2.0416104000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45792</v>
       </c>
@@ -12438,7 +13278,7 @@
         <v>2.0431068200000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45793</v>
       </c>
@@ -12449,7 +13289,7 @@
         <v>2.04433921</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45796</v>
       </c>
@@ -12460,7 +13300,7 @@
         <v>2.0457556600000002</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45797</v>
       </c>
@@ -12471,7 +13311,7 @@
         <v>2.04711949</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45798</v>
       </c>
@@ -12482,7 +13322,7 @@
         <v>2.0492750399999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45799</v>
       </c>
@@ -12493,7 +13333,7 @@
         <v>2.050478</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45800</v>
       </c>
@@ -12504,7 +13344,7 @@
         <v>2.0509846</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45803</v>
       </c>
@@ -12515,7 +13355,7 @@
         <v>2.0541328499999998</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45804</v>
       </c>
@@ -12526,7 +13366,7 @@
         <v>2.0552140799999998</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45805</v>
       </c>
@@ -12537,7 +13377,7 @@
         <v>2.0567490199999998</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45806</v>
       </c>
@@ -12548,7 +13388,7 @@
         <v>2.0579547900000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45807</v>
       </c>
@@ -12559,7 +13399,7 @@
         <v>2.0588318999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45810</v>
       </c>
@@ -12570,7 +13410,7 @@
         <v>2.05808474</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45811</v>
       </c>
@@ -12581,7 +13421,7 @@
         <v>2.0596229099999999</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45812</v>
       </c>
@@ -12592,7 +13432,7 @@
         <v>2.060622</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45813</v>
       </c>
@@ -12603,7 +13443,7 @@
         <v>2.0616254999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45814</v>
       </c>
@@ -12614,7 +13454,7 @@
         <v>2.0659419699999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45817</v>
       </c>
@@ -12625,7 +13465,7 @@
         <v>2.0670256999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45818</v>
       </c>
@@ -12636,7 +13476,7 @@
         <v>2.06878567</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45819</v>
       </c>
@@ -12647,7 +13487,7 @@
         <v>2.0702841699999999</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45820</v>
       </c>
@@ -12658,7 +13498,7 @@
         <v>2.0716654800000001</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45821</v>
       </c>
@@ -12669,7 +13509,7 @@
         <v>2.07292918</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45824</v>
       </c>
@@ -12680,7 +13520,7 @@
         <v>2.0742262500000002</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45825</v>
       </c>
@@ -12691,7 +13531,7 @@
         <v>2.0726992800000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45826</v>
       </c>
@@ -12702,7 +13542,7 @@
         <v>2.0739326500000002</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45828</v>
       </c>
@@ -12713,7 +13553,7 @@
         <v>2.0749435799999998</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45831</v>
       </c>
@@ -12724,7 +13564,7 @@
         <v>2.0778183299999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45832</v>
       </c>
@@ -12735,7 +13575,7 @@
         <v>2.0791255</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45833</v>
       </c>
@@ -12746,7 +13586,7 @@
         <v>2.0814352999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45834</v>
       </c>
@@ -12757,7 +13597,7 @@
         <v>2.0826239499999999</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45835</v>
       </c>
@@ -12768,7 +13608,7 @@
         <v>2.0844693200000002</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45838</v>
       </c>
@@ -12779,7 +13619,7 @@
         <v>2.0855372499999998</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45839</v>
       </c>
@@ -12790,7 +13630,7 @@
         <v>2.0870939000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45840</v>
       </c>
@@ -12801,7 +13641,7 @@
         <v>2.0880412000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45841</v>
       </c>
@@ -12812,7 +13652,7 @@
         <v>2.0888674200000001</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45842</v>
       </c>
@@ -12823,7 +13663,7 @@
         <v>2.0905611999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45845</v>
       </c>
@@ -12834,7 +13674,7 @@
         <v>2.0913610999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45846</v>
       </c>
@@ -12845,7 +13685,7 @@
         <v>2.0926918699999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45847</v>
       </c>
@@ -12856,7 +13696,7 @@
         <v>2.0937954099999998</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45848</v>
       </c>
@@ -12867,7 +13707,7 @@
         <v>2.09503583</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45849</v>
       </c>
@@ -12878,7 +13718,7 @@
         <v>2.0962288999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45852</v>
       </c>
@@ -12889,7 +13729,7 @@
         <v>2.0976922099999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45853</v>
       </c>
@@ -12900,7 +13740,7 @@
         <v>2.0987531100000001</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45854</v>
       </c>
@@ -12911,7 +13751,7 @@
         <v>2.1002183699999999</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45855</v>
       </c>
@@ -12922,7 +13762,7 @@
         <v>2.1015783699999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45856</v>
       </c>
@@ -12933,7 +13773,7 @@
         <v>2.10279032</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45859</v>
       </c>
@@ -12944,7 +13784,7 @@
         <v>2.10405234</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45860</v>
       </c>
@@ -12955,7 +13795,7 @@
         <v>2.10523215</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45861</v>
       </c>
@@ -12966,7 +13806,7 @@
         <v>2.10673289</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45862</v>
       </c>
@@ -12977,7 +13817,7 @@
         <v>2.1074036700000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45863</v>
       </c>
@@ -12988,7 +13828,7 @@
         <v>2.10879292</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45866</v>
       </c>
@@ -12999,7 +13839,7 @@
         <v>2.1112437900000001</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45867</v>
       </c>
@@ -13010,7 +13850,7 @@
         <v>2.1118920000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45868</v>
       </c>
@@ -13021,7 +13861,7 @@
         <v>2.1134360999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45869</v>
       </c>
@@ -13030,6 +13870,237 @@
       </c>
       <c r="C180">
         <v>2.1145352499999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B181">
+        <v>1.10724303</v>
+      </c>
+      <c r="C181">
+        <v>2.1156007200000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B182">
+        <v>1.10804999</v>
+      </c>
+      <c r="C182">
+        <v>2.1159777599999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B183">
+        <v>1.1088436500000001</v>
+      </c>
+      <c r="C183">
+        <v>2.1176035600000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B184">
+        <v>1.10945625</v>
+      </c>
+      <c r="C184">
+        <v>2.11797032</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B185">
+        <v>1.1103242099999999</v>
+      </c>
+      <c r="C185">
+        <v>2.1192143400000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B186">
+        <v>1.1109322699999999</v>
+      </c>
+      <c r="C186">
+        <v>2.11926462</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B187">
+        <v>1.1116564</v>
+      </c>
+      <c r="C187">
+        <v>2.1227249499999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B188">
+        <v>1.11239574</v>
+      </c>
+      <c r="C188">
+        <v>2.12273749</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B189">
+        <v>1.1131809500000001</v>
+      </c>
+      <c r="C189">
+        <v>2.1233585800000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B190">
+        <v>1.1138837100000001</v>
+      </c>
+      <c r="C190">
+        <v>2.1245479</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B191">
+        <v>1.1144498199999999</v>
+      </c>
+      <c r="C191">
+        <v>2.1242563200000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B192">
+        <v>1.1150892299999999</v>
+      </c>
+      <c r="C192">
+        <v>2.1253460300000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B193">
+        <v>1.1157426699999999</v>
+      </c>
+      <c r="C193">
+        <v>2.1271057500000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B194">
+        <v>1.11634509</v>
+      </c>
+      <c r="C194">
+        <v>2.1293972700000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B195">
+        <v>1.11678502</v>
+      </c>
+      <c r="C195">
+        <v>2.1302764299999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B196">
+        <v>1.1173488899999999</v>
+      </c>
+      <c r="C196">
+        <v>2.1316069199999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B197">
+        <v>1.11837692</v>
+      </c>
+      <c r="C197">
+        <v>2.1327109200000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B198">
+        <v>1.11883339</v>
+      </c>
+      <c r="C198">
+        <v>2.1319174599999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B199">
+        <v>1.1195558000000001</v>
+      </c>
+      <c r="C199">
+        <v>2.1340178299999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B200">
+        <v>1.1202926</v>
+      </c>
+      <c r="C200">
+        <v>2.1347813499999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B201">
+        <v>1.12106002</v>
+      </c>
+      <c r="C201">
+        <v>2.1369604899999999</v>
       </c>
     </row>
   </sheetData>
@@ -13044,7 +14115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
